--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1072.683447798247</v>
+        <v>1395.636318882181</v>
       </c>
       <c r="AB2" t="n">
-        <v>1467.692816731357</v>
+        <v>1909.571182623517</v>
       </c>
       <c r="AC2" t="n">
-        <v>1327.618274222322</v>
+        <v>1727.324389053915</v>
       </c>
       <c r="AD2" t="n">
-        <v>1072683.447798247</v>
+        <v>1395636.318882181</v>
       </c>
       <c r="AE2" t="n">
-        <v>1467692.816731357</v>
+        <v>1909571.182623517</v>
       </c>
       <c r="AF2" t="n">
         <v>2.462853978657124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.72395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1327618.274222322</v>
+        <v>1727324.389053915</v>
       </c>
     </row>
     <row r="3">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>807.1463263794155</v>
+        <v>1051.79203833042</v>
       </c>
       <c r="AB3" t="n">
-        <v>1104.373212535095</v>
+        <v>1439.108268633538</v>
       </c>
       <c r="AC3" t="n">
-        <v>998.9733831282837</v>
+        <v>1301.761795276293</v>
       </c>
       <c r="AD3" t="n">
-        <v>807146.3263794156</v>
+        <v>1051792.03833042</v>
       </c>
       <c r="AE3" t="n">
-        <v>1104373.212535095</v>
+        <v>1439108.268633538</v>
       </c>
       <c r="AF3" t="n">
         <v>3.137691879964481e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.02604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>998973.3831282837</v>
+        <v>1301761.795276293</v>
       </c>
     </row>
     <row r="4">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>732.314787222184</v>
+        <v>957.3834566324916</v>
       </c>
       <c r="AB4" t="n">
-        <v>1001.98539932566</v>
+        <v>1309.93428214176</v>
       </c>
       <c r="AC4" t="n">
-        <v>906.3573191093585</v>
+        <v>1184.915992758461</v>
       </c>
       <c r="AD4" t="n">
-        <v>732314.787222184</v>
+        <v>957383.4566324917</v>
       </c>
       <c r="AE4" t="n">
-        <v>1001985.39932566</v>
+        <v>1309934.28214176</v>
       </c>
       <c r="AF4" t="n">
         <v>3.399261630046997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>47</v>
+        <v>46.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>906357.3191093585</v>
+        <v>1184915.992758462</v>
       </c>
     </row>
     <row r="5">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>695.4796393838848</v>
+        <v>920.4799779566307</v>
       </c>
       <c r="AB5" t="n">
-        <v>951.5859250012666</v>
+        <v>1259.441314550871</v>
       </c>
       <c r="AC5" t="n">
-        <v>860.7678998783787</v>
+        <v>1139.242003127122</v>
       </c>
       <c r="AD5" t="n">
-        <v>695479.6393838847</v>
+        <v>920479.9779566308</v>
       </c>
       <c r="AE5" t="n">
-        <v>951585.9250012665</v>
+        <v>1259441.314550871</v>
       </c>
       <c r="AF5" t="n">
         <v>3.540292324791947e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>45</v>
+        <v>44.32291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>860767.8998783787</v>
+        <v>1139242.003127122</v>
       </c>
     </row>
     <row r="6">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>674.6958058326881</v>
+        <v>889.9417885538664</v>
       </c>
       <c r="AB6" t="n">
-        <v>923.1485670184958</v>
+        <v>1217.657616560177</v>
       </c>
       <c r="AC6" t="n">
-        <v>835.044563429401</v>
+        <v>1101.446082628871</v>
       </c>
       <c r="AD6" t="n">
-        <v>674695.805832688</v>
+        <v>889941.7885538664</v>
       </c>
       <c r="AE6" t="n">
-        <v>923148.5670184958</v>
+        <v>1217657.616560177</v>
       </c>
       <c r="AF6" t="n">
         <v>3.630877424878127e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>44</v>
+        <v>43.22916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>835044.563429401</v>
+        <v>1101446.082628871</v>
       </c>
     </row>
     <row r="7">
@@ -5607,28 +5607,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>657.7925892239488</v>
+        <v>873.1058917528317</v>
       </c>
       <c r="AB7" t="n">
-        <v>900.0208403371321</v>
+        <v>1194.621999809655</v>
       </c>
       <c r="AC7" t="n">
-        <v>814.1241145225387</v>
+        <v>1080.608952810328</v>
       </c>
       <c r="AD7" t="n">
-        <v>657792.5892239488</v>
+        <v>873105.8917528316</v>
       </c>
       <c r="AE7" t="n">
-        <v>900020.8403371321</v>
+        <v>1194621.999809655</v>
       </c>
       <c r="AF7" t="n">
         <v>3.684336495920337e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.60416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>814124.1145225386</v>
+        <v>1080608.952810328</v>
       </c>
     </row>
     <row r="8">
@@ -5713,28 +5713,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>650.8851563393835</v>
+        <v>856.3767832089944</v>
       </c>
       <c r="AB8" t="n">
-        <v>890.5697859300381</v>
+        <v>1171.732495463795</v>
       </c>
       <c r="AC8" t="n">
-        <v>805.5750554834194</v>
+        <v>1059.903990633616</v>
       </c>
       <c r="AD8" t="n">
-        <v>650885.1563393835</v>
+        <v>856376.7832089944</v>
       </c>
       <c r="AE8" t="n">
-        <v>890569.7859300381</v>
+        <v>1171732.495463795</v>
       </c>
       <c r="AF8" t="n">
         <v>3.737313410741196e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>43</v>
+        <v>42.00520833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>805575.0554834194</v>
+        <v>1059903.990633616</v>
       </c>
     </row>
     <row r="9">
@@ -5819,28 +5819,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>637.3611405266239</v>
+        <v>852.640277636726</v>
       </c>
       <c r="AB9" t="n">
-        <v>872.0656308575512</v>
+        <v>1166.620043696826</v>
       </c>
       <c r="AC9" t="n">
-        <v>788.836911000306</v>
+        <v>1055.279464087915</v>
       </c>
       <c r="AD9" t="n">
-        <v>637361.1405266239</v>
+        <v>852640.2776367259</v>
       </c>
       <c r="AE9" t="n">
-        <v>872065.6308575512</v>
+        <v>1166620.043696826</v>
       </c>
       <c r="AF9" t="n">
         <v>3.764494967719818e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.69270833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>788836.911000306</v>
+        <v>1055279.464087915</v>
       </c>
     </row>
     <row r="10">
@@ -5925,28 +5925,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>632.6315115362543</v>
+        <v>838.0889729870844</v>
       </c>
       <c r="AB10" t="n">
-        <v>865.5943438164229</v>
+        <v>1146.710306716932</v>
       </c>
       <c r="AC10" t="n">
-        <v>782.9832345118743</v>
+        <v>1037.269884461891</v>
       </c>
       <c r="AD10" t="n">
-        <v>632631.5115362543</v>
+        <v>838088.9729870844</v>
       </c>
       <c r="AE10" t="n">
-        <v>865594.3438164229</v>
+        <v>1146710.306716932</v>
       </c>
       <c r="AF10" t="n">
         <v>3.792520298085802e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>41.38020833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>782983.2345118744</v>
+        <v>1037269.884461891</v>
       </c>
     </row>
     <row r="11">
@@ -6031,28 +6031,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>630.7156097928046</v>
+        <v>836.1730712436347</v>
       </c>
       <c r="AB11" t="n">
-        <v>862.9729225274154</v>
+        <v>1144.088885427925</v>
       </c>
       <c r="AC11" t="n">
-        <v>780.6119979915021</v>
+        <v>1034.898647941519</v>
       </c>
       <c r="AD11" t="n">
-        <v>630715.6097928046</v>
+        <v>836173.0712436347</v>
       </c>
       <c r="AE11" t="n">
-        <v>862972.9225274154</v>
+        <v>1144088.885427925</v>
       </c>
       <c r="AF11" t="n">
         <v>3.803308543538514e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>42</v>
+        <v>41.27604166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>780611.9979915021</v>
+        <v>1034898.647941519</v>
       </c>
     </row>
     <row r="12">
@@ -6137,28 +6137,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>626.8075522175432</v>
+        <v>832.2650136683732</v>
       </c>
       <c r="AB12" t="n">
-        <v>857.6257457416108</v>
+        <v>1138.741708642121</v>
       </c>
       <c r="AC12" t="n">
-        <v>775.7751482533247</v>
+        <v>1030.061798203342</v>
       </c>
       <c r="AD12" t="n">
-        <v>626807.5522175431</v>
+        <v>832265.0136683732</v>
       </c>
       <c r="AE12" t="n">
-        <v>857625.7457416108</v>
+        <v>1138741.70864212</v>
       </c>
       <c r="AF12" t="n">
         <v>3.823438565779887e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>42</v>
+        <v>41.04166666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>775775.1482533247</v>
+        <v>1030061.798203342</v>
       </c>
     </row>
     <row r="13">
@@ -6243,28 +6243,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>613.5253503146348</v>
+        <v>819.0501315731693</v>
       </c>
       <c r="AB13" t="n">
-        <v>839.4524511286593</v>
+        <v>1120.66052396001</v>
       </c>
       <c r="AC13" t="n">
-        <v>759.336287371854</v>
+        <v>1013.70625641019</v>
       </c>
       <c r="AD13" t="n">
-        <v>613525.3503146349</v>
+        <v>819050.1315731694</v>
       </c>
       <c r="AE13" t="n">
-        <v>839452.4511286593</v>
+        <v>1120660.52396001</v>
       </c>
       <c r="AF13" t="n">
         <v>3.836034897062662e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>41</v>
+        <v>40.91145833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>759336.2873718541</v>
+        <v>1013706.25641019</v>
       </c>
     </row>
     <row r="14">
@@ -6349,28 +6349,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>609.6501899809113</v>
+        <v>815.1749712394458</v>
       </c>
       <c r="AB14" t="n">
-        <v>834.1502858000504</v>
+        <v>1115.358358631402</v>
       </c>
       <c r="AC14" t="n">
-        <v>754.5401532605719</v>
+        <v>1008.910122298908</v>
       </c>
       <c r="AD14" t="n">
-        <v>609650.1899809112</v>
+        <v>815174.9712394457</v>
       </c>
       <c r="AE14" t="n">
-        <v>834150.2858000504</v>
+        <v>1115358.358631402</v>
       </c>
       <c r="AF14" t="n">
         <v>3.850921470396852e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>41</v>
+        <v>40.75520833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>754540.1532605719</v>
+        <v>1008910.122298908</v>
       </c>
     </row>
     <row r="15">
@@ -6455,28 +6455,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>606.8946934207181</v>
+        <v>812.4194746792526</v>
       </c>
       <c r="AB15" t="n">
-        <v>830.3800938424654</v>
+        <v>1111.588166673816</v>
       </c>
       <c r="AC15" t="n">
-        <v>751.1297831319212</v>
+        <v>1005.499752170257</v>
       </c>
       <c r="AD15" t="n">
-        <v>606894.6934207181</v>
+        <v>812419.4746792526</v>
       </c>
       <c r="AE15" t="n">
-        <v>830380.0938424654</v>
+        <v>1111588.166673817</v>
       </c>
       <c r="AF15" t="n">
         <v>3.866712086646072e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>41</v>
+        <v>40.59895833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>751129.7831319212</v>
+        <v>1005499.752170257</v>
       </c>
     </row>
     <row r="16">
@@ -6561,28 +6561,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>602.6444908538945</v>
+        <v>808.0677868859439</v>
       </c>
       <c r="AB16" t="n">
-        <v>824.5647791848336</v>
+        <v>1105.633995452096</v>
       </c>
       <c r="AC16" t="n">
-        <v>745.8694739433686</v>
+        <v>1000.113838693205</v>
       </c>
       <c r="AD16" t="n">
-        <v>602644.4908538945</v>
+        <v>808067.7868859438</v>
       </c>
       <c r="AE16" t="n">
-        <v>824564.7791848336</v>
+        <v>1105633.995452096</v>
       </c>
       <c r="AF16" t="n">
         <v>3.881598659980262e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>41</v>
+        <v>40.44270833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>745869.4739433685</v>
+        <v>1000113.838693206</v>
       </c>
     </row>
     <row r="17">
@@ -6667,28 +6667,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>599.9404204675081</v>
+        <v>805.3637164995572</v>
       </c>
       <c r="AB17" t="n">
-        <v>820.8649507870138</v>
+        <v>1101.934167054276</v>
       </c>
       <c r="AC17" t="n">
-        <v>742.5227519750947</v>
+        <v>996.7671167249316</v>
       </c>
       <c r="AD17" t="n">
-        <v>599940.4204675081</v>
+        <v>805363.7164995573</v>
       </c>
       <c r="AE17" t="n">
-        <v>820864.9507870137</v>
+        <v>1101934.167054276</v>
       </c>
       <c r="AF17" t="n">
         <v>3.880754886592899e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>41</v>
+        <v>40.44270833333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>742522.7519750947</v>
+        <v>996767.1167249316</v>
       </c>
     </row>
     <row r="18">
@@ -6773,28 +6773,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>600.1070640630363</v>
+        <v>805.5303600950856</v>
       </c>
       <c r="AB18" t="n">
-        <v>821.0929599062121</v>
+        <v>1102.162176173474</v>
       </c>
       <c r="AC18" t="n">
-        <v>742.7290002239696</v>
+        <v>996.9733649738065</v>
       </c>
       <c r="AD18" t="n">
-        <v>600107.0640630363</v>
+        <v>805530.3600950856</v>
       </c>
       <c r="AE18" t="n">
-        <v>821092.9599062121</v>
+        <v>1102162.176173474</v>
       </c>
       <c r="AF18" t="n">
         <v>3.877922218792467e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>41</v>
+        <v>40.46875</v>
       </c>
       <c r="AH18" t="n">
-        <v>742729.0002239696</v>
+        <v>996973.3649738065</v>
       </c>
     </row>
     <row r="19">
@@ -6879,28 +6879,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>598.0113635603276</v>
+        <v>803.4346595923768</v>
       </c>
       <c r="AB19" t="n">
-        <v>818.2255300226249</v>
+        <v>1099.294746289887</v>
       </c>
       <c r="AC19" t="n">
-        <v>740.1352338240089</v>
+        <v>994.3795985738458</v>
       </c>
       <c r="AD19" t="n">
-        <v>598011.3635603276</v>
+        <v>803434.6595923768</v>
       </c>
       <c r="AE19" t="n">
-        <v>818225.5300226249</v>
+        <v>1099294.746289887</v>
       </c>
       <c r="AF19" t="n">
         <v>3.893290948348005e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>41</v>
+        <v>40.3125</v>
       </c>
       <c r="AH19" t="n">
-        <v>740135.2338240088</v>
+        <v>994379.5985738458</v>
       </c>
     </row>
     <row r="20">
@@ -6985,28 +6985,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>598.825097357339</v>
+        <v>804.2483933893882</v>
       </c>
       <c r="AB20" t="n">
-        <v>819.3389165030974</v>
+        <v>1100.40813277036</v>
       </c>
       <c r="AC20" t="n">
-        <v>741.1423602614328</v>
+        <v>995.3867250112698</v>
       </c>
       <c r="AD20" t="n">
-        <v>598825.097357339</v>
+        <v>804248.3933893882</v>
       </c>
       <c r="AE20" t="n">
-        <v>819338.9165030974</v>
+        <v>1100408.13277036</v>
       </c>
       <c r="AF20" t="n">
         <v>3.891482862517942e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>41</v>
+        <v>40.33854166666666</v>
       </c>
       <c r="AH20" t="n">
-        <v>741142.3602614328</v>
+        <v>995386.7250112698</v>
       </c>
     </row>
   </sheetData>
@@ -7282,28 +7282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>906.5179555220352</v>
+        <v>1187.152395648685</v>
       </c>
       <c r="AB2" t="n">
-        <v>1240.3378594949</v>
+        <v>1624.314281193894</v>
       </c>
       <c r="AC2" t="n">
-        <v>1121.961755009826</v>
+        <v>1469.29200593616</v>
       </c>
       <c r="AD2" t="n">
-        <v>906517.9555220352</v>
+        <v>1187152.395648685</v>
       </c>
       <c r="AE2" t="n">
-        <v>1240337.8594949</v>
+        <v>1624314.281193894</v>
       </c>
       <c r="AF2" t="n">
         <v>3.004893559678149e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.16145833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1121961.755009826</v>
+        <v>1469292.00593616</v>
       </c>
     </row>
     <row r="3">
@@ -7388,28 +7388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>707.822226772054</v>
+        <v>949.7334592684144</v>
       </c>
       <c r="AB3" t="n">
-        <v>968.4735975822853</v>
+        <v>1299.467218254165</v>
       </c>
       <c r="AC3" t="n">
-        <v>876.0438366902624</v>
+        <v>1175.447890757682</v>
       </c>
       <c r="AD3" t="n">
-        <v>707822.226772054</v>
+        <v>949733.4592684144</v>
       </c>
       <c r="AE3" t="n">
-        <v>968473.5975822853</v>
+        <v>1299467.218254165</v>
       </c>
       <c r="AF3" t="n">
         <v>3.65808828180895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.953125</v>
       </c>
       <c r="AH3" t="n">
-        <v>876043.8366902624</v>
+        <v>1175447.890757682</v>
       </c>
     </row>
     <row r="4">
@@ -7494,28 +7494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>663.0185671735114</v>
+        <v>875.9233286681855</v>
       </c>
       <c r="AB4" t="n">
-        <v>907.1712539215989</v>
+        <v>1198.476941293786</v>
       </c>
       <c r="AC4" t="n">
-        <v>820.5921026701723</v>
+        <v>1084.095984089658</v>
       </c>
       <c r="AD4" t="n">
-        <v>663018.5671735114</v>
+        <v>875923.3286681855</v>
       </c>
       <c r="AE4" t="n">
-        <v>907171.2539215989</v>
+        <v>1198476.941293786</v>
       </c>
       <c r="AF4" t="n">
         <v>3.900703464314676e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.03645833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>820592.1026701722</v>
+        <v>1084095.984089658</v>
       </c>
     </row>
     <row r="5">
@@ -7600,28 +7600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>631.3375518147924</v>
+        <v>844.2754676983902</v>
       </c>
       <c r="AB5" t="n">
-        <v>863.8238910400446</v>
+        <v>1155.174941709825</v>
       </c>
       <c r="AC5" t="n">
-        <v>781.3817512636277</v>
+        <v>1044.926666571252</v>
       </c>
       <c r="AD5" t="n">
-        <v>631337.5518147924</v>
+        <v>844275.4676983902</v>
       </c>
       <c r="AE5" t="n">
-        <v>863823.8910400446</v>
+        <v>1155174.941709825</v>
       </c>
       <c r="AF5" t="n">
         <v>4.021318622999909e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.70833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>781381.7512636278</v>
+        <v>1044926.666571252</v>
       </c>
     </row>
     <row r="6">
@@ -7706,28 +7706,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>611.7480412610167</v>
+        <v>824.6517917258336</v>
       </c>
       <c r="AB6" t="n">
-        <v>837.0206584721573</v>
+        <v>1128.32496250869</v>
       </c>
       <c r="AC6" t="n">
-        <v>757.1365815934463</v>
+        <v>1020.639211700891</v>
       </c>
       <c r="AD6" t="n">
-        <v>611748.0412610167</v>
+        <v>824651.7917258337</v>
       </c>
       <c r="AE6" t="n">
-        <v>837020.6584721573</v>
+        <v>1128324.96250869</v>
       </c>
       <c r="AF6" t="n">
         <v>4.115555398156387e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.71875</v>
       </c>
       <c r="AH6" t="n">
-        <v>757136.5815934463</v>
+        <v>1020639.211700891</v>
       </c>
     </row>
     <row r="7">
@@ -7812,28 +7812,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>605.2458569920407</v>
+        <v>808.4359039178257</v>
       </c>
       <c r="AB7" t="n">
-        <v>828.1240830992195</v>
+        <v>1106.137669415294</v>
       </c>
       <c r="AC7" t="n">
-        <v>749.0890828876798</v>
+        <v>1000.569442720267</v>
       </c>
       <c r="AD7" t="n">
-        <v>605245.8569920406</v>
+        <v>808435.9039178258</v>
       </c>
       <c r="AE7" t="n">
-        <v>828124.0830992196</v>
+        <v>1106137.669415294</v>
       </c>
       <c r="AF7" t="n">
         <v>4.167652705625678e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.19791666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>749089.0828876798</v>
+        <v>1000569.442720267</v>
       </c>
     </row>
     <row r="8">
@@ -7918,28 +7918,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>590.7063873685684</v>
+        <v>793.963754102058</v>
       </c>
       <c r="AB8" t="n">
-        <v>808.2305393242552</v>
+        <v>1086.336235571171</v>
       </c>
       <c r="AC8" t="n">
-        <v>731.094151009834</v>
+        <v>982.6578299307401</v>
       </c>
       <c r="AD8" t="n">
-        <v>590706.3873685683</v>
+        <v>793963.754102058</v>
       </c>
       <c r="AE8" t="n">
-        <v>808230.5393242552</v>
+        <v>1086336.235571171</v>
       </c>
       <c r="AF8" t="n">
         <v>4.196866765383775e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.91145833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>731094.151009834</v>
+        <v>982657.8299307402</v>
       </c>
     </row>
     <row r="9">
@@ -8024,28 +8024,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>585.992238651956</v>
+        <v>789.2496053854456</v>
       </c>
       <c r="AB9" t="n">
-        <v>801.7804330766229</v>
+        <v>1079.886129323539</v>
       </c>
       <c r="AC9" t="n">
-        <v>725.2596338496948</v>
+        <v>976.8233127706008</v>
       </c>
       <c r="AD9" t="n">
-        <v>585992.238651956</v>
+        <v>789249.6053854456</v>
       </c>
       <c r="AE9" t="n">
-        <v>801780.4330766229</v>
+        <v>1079886.129323539</v>
       </c>
       <c r="AF9" t="n">
         <v>4.224893797883077e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.65104166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>725259.6338496947</v>
+        <v>976823.3127706008</v>
       </c>
     </row>
     <row r="10">
@@ -8130,28 +8130,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>582.2603132268978</v>
+        <v>785.4161947339022</v>
       </c>
       <c r="AB10" t="n">
-        <v>796.6742480691283</v>
+        <v>1074.641087751955</v>
       </c>
       <c r="AC10" t="n">
-        <v>720.6407759727398</v>
+        <v>972.078850605147</v>
       </c>
       <c r="AD10" t="n">
-        <v>582260.3132268977</v>
+        <v>785416.1947339022</v>
       </c>
       <c r="AE10" t="n">
-        <v>796674.2480691284</v>
+        <v>1074641.087751955</v>
       </c>
       <c r="AF10" t="n">
         <v>4.25259110058827e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.390625</v>
       </c>
       <c r="AH10" t="n">
-        <v>720640.7759727398</v>
+        <v>972078.850605147</v>
       </c>
     </row>
     <row r="11">
@@ -8236,28 +8236,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>578.3724707718679</v>
+        <v>771.9161339663258</v>
       </c>
       <c r="AB11" t="n">
-        <v>791.3547305026526</v>
+        <v>1056.16970902911</v>
       </c>
       <c r="AC11" t="n">
-        <v>715.8289456968187</v>
+        <v>955.3703543428674</v>
       </c>
       <c r="AD11" t="n">
-        <v>578372.4707718679</v>
+        <v>771916.1339663258</v>
       </c>
       <c r="AE11" t="n">
-        <v>791354.7305026526</v>
+        <v>1056169.70902911</v>
       </c>
       <c r="AF11" t="n">
         <v>4.267956508993769e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.234375</v>
       </c>
       <c r="AH11" t="n">
-        <v>715828.9456968186</v>
+        <v>955370.3543428674</v>
       </c>
     </row>
     <row r="12">
@@ -8342,28 +8342,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>573.1435166357036</v>
+        <v>766.6871798301615</v>
       </c>
       <c r="AB12" t="n">
-        <v>784.200244768377</v>
+        <v>1049.015223294834</v>
       </c>
       <c r="AC12" t="n">
-        <v>709.3572740396387</v>
+        <v>948.8986826856872</v>
       </c>
       <c r="AD12" t="n">
-        <v>573143.5166357036</v>
+        <v>766687.1798301615</v>
       </c>
       <c r="AE12" t="n">
-        <v>784200.244768377</v>
+        <v>1049015.223294834</v>
       </c>
       <c r="AF12" t="n">
         <v>4.284113268905132e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>41</v>
+        <v>40.078125</v>
       </c>
       <c r="AH12" t="n">
-        <v>709357.2740396387</v>
+        <v>948898.6826856872</v>
       </c>
     </row>
     <row r="13">
@@ -8448,28 +8448,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>563.1116835111675</v>
+        <v>766.3348848258764</v>
       </c>
       <c r="AB13" t="n">
-        <v>770.4742481141446</v>
+        <v>1048.533197727812</v>
       </c>
       <c r="AC13" t="n">
-        <v>696.9412672415287</v>
+        <v>948.462660962255</v>
       </c>
       <c r="AD13" t="n">
-        <v>563111.6835111675</v>
+        <v>766334.8848258764</v>
       </c>
       <c r="AE13" t="n">
-        <v>770474.2481141447</v>
+        <v>1048533.197727812</v>
       </c>
       <c r="AF13" t="n">
         <v>4.295983541493073e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>39.97395833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>696941.2672415287</v>
+        <v>948462.660962255</v>
       </c>
     </row>
     <row r="14">
@@ -8554,28 +8554,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>562.9973544026298</v>
+        <v>766.2205557173387</v>
       </c>
       <c r="AB14" t="n">
-        <v>770.317817983999</v>
+        <v>1048.376767597667</v>
       </c>
       <c r="AC14" t="n">
-        <v>696.7997665834533</v>
+        <v>948.3211603041797</v>
       </c>
       <c r="AD14" t="n">
-        <v>562997.3544026298</v>
+        <v>766220.5557173387</v>
       </c>
       <c r="AE14" t="n">
-        <v>770317.817983999</v>
+        <v>1048376.767597667</v>
       </c>
       <c r="AF14" t="n">
         <v>4.29591759553425e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>40</v>
+        <v>39.97395833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>696799.7665834533</v>
+        <v>948321.1603041796</v>
       </c>
     </row>
   </sheetData>
@@ -8851,28 +8851,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>596.6651783570513</v>
+        <v>811.7397731442761</v>
       </c>
       <c r="AB2" t="n">
-        <v>816.3836200380027</v>
+        <v>1110.658169047346</v>
       </c>
       <c r="AC2" t="n">
-        <v>738.4691131431821</v>
+        <v>1004.658512211998</v>
       </c>
       <c r="AD2" t="n">
-        <v>596665.1783570513</v>
+        <v>811739.7731442761</v>
       </c>
       <c r="AE2" t="n">
-        <v>816383.6200380027</v>
+        <v>1110658.169047346</v>
       </c>
       <c r="AF2" t="n">
         <v>5.309964729290765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.13020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>738469.1131431821</v>
+        <v>1004658.512211998</v>
       </c>
     </row>
     <row r="3">
@@ -8957,28 +8957,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>529.6156436967518</v>
+        <v>725.9792750045236</v>
       </c>
       <c r="AB3" t="n">
-        <v>724.6434886990783</v>
+        <v>993.3168720063841</v>
       </c>
       <c r="AC3" t="n">
-        <v>655.4845311811615</v>
+        <v>898.51610387108</v>
       </c>
       <c r="AD3" t="n">
-        <v>529615.6436967518</v>
+        <v>725979.2750045236</v>
       </c>
       <c r="AE3" t="n">
-        <v>724643.4886990782</v>
+        <v>993316.8720063841</v>
       </c>
       <c r="AF3" t="n">
         <v>5.841347796517842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.04166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>655484.5311811615</v>
+        <v>898516.10387108</v>
       </c>
     </row>
     <row r="4">
@@ -9063,28 +9063,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>497.2608343981574</v>
+        <v>693.6576200948527</v>
       </c>
       <c r="AB4" t="n">
-        <v>680.3742112232954</v>
+        <v>949.0929578281949</v>
       </c>
       <c r="AC4" t="n">
-        <v>615.4402514153463</v>
+        <v>858.5128579934038</v>
       </c>
       <c r="AD4" t="n">
-        <v>497260.8343981574</v>
+        <v>693657.6200948528</v>
       </c>
       <c r="AE4" t="n">
-        <v>680374.2112232954</v>
+        <v>949092.957828195</v>
       </c>
       <c r="AF4" t="n">
         <v>6.046150728196387e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.63541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>615440.2514153463</v>
+        <v>858512.8579934038</v>
       </c>
     </row>
     <row r="5">
@@ -9169,28 +9169,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>494.8715864410334</v>
+        <v>681.8797360090786</v>
       </c>
       <c r="AB5" t="n">
-        <v>677.1051367621776</v>
+        <v>932.9779372184648</v>
       </c>
       <c r="AC5" t="n">
-        <v>612.4831728326228</v>
+        <v>843.9358323330928</v>
       </c>
       <c r="AD5" t="n">
-        <v>494871.5864410334</v>
+        <v>681879.7360090786</v>
       </c>
       <c r="AE5" t="n">
-        <v>677105.1367621776</v>
+        <v>932977.9372184648</v>
       </c>
       <c r="AF5" t="n">
         <v>6.086190851917811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>612483.1728326228</v>
+        <v>843935.8323330928</v>
       </c>
     </row>
     <row r="6">
@@ -9275,28 +9275,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>495.5393891884603</v>
+        <v>682.5475387565054</v>
       </c>
       <c r="AB6" t="n">
-        <v>678.0188539425851</v>
+        <v>933.8916543988723</v>
       </c>
       <c r="AC6" t="n">
-        <v>613.3096861277423</v>
+        <v>844.7623456282123</v>
       </c>
       <c r="AD6" t="n">
-        <v>495539.3891884603</v>
+        <v>682547.5387565055</v>
       </c>
       <c r="AE6" t="n">
-        <v>678018.8539425851</v>
+        <v>933891.6543988723</v>
       </c>
       <c r="AF6" t="n">
         <v>6.085270389303526e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.40104166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>613309.6861277423</v>
+        <v>844762.3456282123</v>
       </c>
     </row>
   </sheetData>
@@ -9572,28 +9572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.5469540420308</v>
+        <v>932.9912811261395</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.3638308342778</v>
+        <v>1276.559831507134</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.7122652248705</v>
+        <v>1154.726752851068</v>
       </c>
       <c r="AD2" t="n">
-        <v>686546.9540420308</v>
+        <v>932991.2811261395</v>
       </c>
       <c r="AE2" t="n">
-        <v>939363.8308342778</v>
+        <v>1276559.831507134</v>
       </c>
       <c r="AF2" t="n">
         <v>4.24713460765993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>49</v>
+        <v>48.88020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>849712.2652248705</v>
+        <v>1154726.752851068</v>
       </c>
     </row>
     <row r="3">
@@ -9678,28 +9678,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>584.0733034660336</v>
+        <v>792.6556808737885</v>
       </c>
       <c r="AB3" t="n">
-        <v>799.1548612977983</v>
+        <v>1084.546472072135</v>
       </c>
       <c r="AC3" t="n">
-        <v>722.8846429564281</v>
+        <v>981.0388789481029</v>
       </c>
       <c r="AD3" t="n">
-        <v>584073.3034660337</v>
+        <v>792655.6808737884</v>
       </c>
       <c r="AE3" t="n">
-        <v>799154.8612977983</v>
+        <v>1084546.472072134</v>
       </c>
       <c r="AF3" t="n">
         <v>4.840749806759862e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>722884.6429564281</v>
+        <v>981038.8789481029</v>
       </c>
     </row>
     <row r="4">
@@ -9784,28 +9784,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>559.5512373301035</v>
+        <v>758.5837248016749</v>
       </c>
       <c r="AB4" t="n">
-        <v>765.6026885734132</v>
+        <v>1037.927718625654</v>
       </c>
       <c r="AC4" t="n">
-        <v>692.5346425060881</v>
+        <v>938.8693539007232</v>
       </c>
       <c r="AD4" t="n">
-        <v>559551.2373301035</v>
+        <v>758583.7248016748</v>
       </c>
       <c r="AE4" t="n">
-        <v>765602.6885734132</v>
+        <v>1037927.718625654</v>
       </c>
       <c r="AF4" t="n">
         <v>5.053182263534579e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.06770833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>692534.642506088</v>
+        <v>938869.3539007233</v>
       </c>
     </row>
     <row r="5">
@@ -9890,28 +9890,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>540.2336490953171</v>
+        <v>729.8177318571903</v>
       </c>
       <c r="AB5" t="n">
-        <v>739.1715121187331</v>
+        <v>998.568818012968</v>
       </c>
       <c r="AC5" t="n">
-        <v>668.6260204358534</v>
+        <v>903.2668115219478</v>
       </c>
       <c r="AD5" t="n">
-        <v>540233.6490953171</v>
+        <v>729817.7318571904</v>
       </c>
       <c r="AE5" t="n">
-        <v>739171.512118733</v>
+        <v>998568.8180129679</v>
       </c>
       <c r="AF5" t="n">
         <v>5.16461962735111e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.18229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>668626.0204358534</v>
+        <v>903266.8115219478</v>
       </c>
     </row>
     <row r="6">
@@ -9996,28 +9996,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>523.4065790037763</v>
+        <v>722.4722208642713</v>
       </c>
       <c r="AB6" t="n">
-        <v>716.1479724615475</v>
+        <v>988.518365811382</v>
       </c>
       <c r="AC6" t="n">
-        <v>647.7998150898088</v>
+        <v>894.175560372583</v>
       </c>
       <c r="AD6" t="n">
-        <v>523406.5790037763</v>
+        <v>722472.2208642713</v>
       </c>
       <c r="AE6" t="n">
-        <v>716147.9724615475</v>
+        <v>988518.365811382</v>
       </c>
       <c r="AF6" t="n">
         <v>5.21962090133781e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>647799.8150898088</v>
+        <v>894175.5603725831</v>
       </c>
     </row>
     <row r="7">
@@ -10102,28 +10102,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>517.9531044584838</v>
+        <v>707.5030218015763</v>
       </c>
       <c r="AB7" t="n">
-        <v>708.6862879983615</v>
+        <v>968.0368472593485</v>
       </c>
       <c r="AC7" t="n">
-        <v>641.0502633192492</v>
+        <v>875.6487692051638</v>
       </c>
       <c r="AD7" t="n">
-        <v>517953.1044584839</v>
+        <v>707503.0218015764</v>
       </c>
       <c r="AE7" t="n">
-        <v>708686.2879983615</v>
+        <v>968036.8472593485</v>
       </c>
       <c r="AF7" t="n">
         <v>5.267049536152428e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.40104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>641050.2633192493</v>
+        <v>875648.7692051638</v>
       </c>
     </row>
     <row r="8">
@@ -10208,28 +10208,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>518.6438230720031</v>
+        <v>708.1937404150956</v>
       </c>
       <c r="AB8" t="n">
-        <v>709.631359677733</v>
+        <v>968.9819189387201</v>
       </c>
       <c r="AC8" t="n">
-        <v>641.9051386839581</v>
+        <v>876.5036445698726</v>
       </c>
       <c r="AD8" t="n">
-        <v>518643.8230720031</v>
+        <v>708193.7404150956</v>
       </c>
       <c r="AE8" t="n">
-        <v>709631.359677733</v>
+        <v>968981.9189387201</v>
       </c>
       <c r="AF8" t="n">
         <v>5.262665376631749e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.453125</v>
       </c>
       <c r="AH8" t="n">
-        <v>641905.1386839581</v>
+        <v>876503.6445698725</v>
       </c>
     </row>
   </sheetData>
@@ -10505,28 +10505,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>526.245960069905</v>
+        <v>729.7391448570222</v>
       </c>
       <c r="AB2" t="n">
-        <v>720.0329389008767</v>
+        <v>998.4612918123235</v>
       </c>
       <c r="AC2" t="n">
-        <v>651.3140057847531</v>
+        <v>903.1695474709792</v>
       </c>
       <c r="AD2" t="n">
-        <v>526245.960069905</v>
+        <v>729739.1448570222</v>
       </c>
       <c r="AE2" t="n">
-        <v>720032.9389008767</v>
+        <v>998461.2918123235</v>
       </c>
       <c r="AF2" t="n">
         <v>6.419204888821286e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>651314.0057847531</v>
+        <v>903169.5474709792</v>
       </c>
     </row>
     <row r="3">
@@ -10611,28 +10611,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.8308700406393</v>
+        <v>671.0386462177985</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.4210326829228</v>
+        <v>918.1446798909085</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.1548850023344</v>
+        <v>830.5182402662712</v>
       </c>
       <c r="AD3" t="n">
-        <v>476830.8700406393</v>
+        <v>671038.6462177985</v>
       </c>
       <c r="AE3" t="n">
-        <v>652421.0326829228</v>
+        <v>918144.6798909085</v>
       </c>
       <c r="AF3" t="n">
         <v>6.907118438707385e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.73958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>590154.8850023344</v>
+        <v>830518.2402662712</v>
       </c>
     </row>
     <row r="4">
@@ -10717,28 +10717,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>475.7516507855856</v>
+        <v>669.9594269627447</v>
       </c>
       <c r="AB4" t="n">
-        <v>650.944397286365</v>
+        <v>916.6680444943506</v>
       </c>
       <c r="AC4" t="n">
-        <v>588.8191776155531</v>
+        <v>829.1825328794899</v>
       </c>
       <c r="AD4" t="n">
-        <v>475751.6507855856</v>
+        <v>669959.4269627447</v>
       </c>
       <c r="AE4" t="n">
-        <v>650944.3972863649</v>
+        <v>916668.0444943507</v>
       </c>
       <c r="AF4" t="n">
         <v>6.924724653666543e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.63541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>588819.1776155531</v>
+        <v>829182.5328794899</v>
       </c>
     </row>
   </sheetData>
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>941.467393058559</v>
+        <v>1232.701088604581</v>
       </c>
       <c r="AB2" t="n">
-        <v>1288.157221792737</v>
+        <v>1686.636012362663</v>
       </c>
       <c r="AC2" t="n">
-        <v>1165.217304484853</v>
+        <v>1525.66583855128</v>
       </c>
       <c r="AD2" t="n">
-        <v>941467.3930585589</v>
+        <v>1232701.088604581</v>
       </c>
       <c r="AE2" t="n">
-        <v>1288157.221792737</v>
+        <v>1686636.012362662</v>
       </c>
       <c r="AF2" t="n">
         <v>2.854242942755452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.72395833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1165217.304484853</v>
+        <v>1525665.83855128</v>
       </c>
     </row>
     <row r="3">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>733.9471884805279</v>
+        <v>976.6020751136355</v>
       </c>
       <c r="AB3" t="n">
-        <v>1004.218922743787</v>
+        <v>1336.230043813269</v>
       </c>
       <c r="AC3" t="n">
-        <v>908.3776781872292</v>
+        <v>1208.702123842375</v>
       </c>
       <c r="AD3" t="n">
-        <v>733947.1884805278</v>
+        <v>976602.0751136355</v>
       </c>
       <c r="AE3" t="n">
-        <v>1004218.922743787</v>
+        <v>1336230.043813269</v>
       </c>
       <c r="AF3" t="n">
         <v>3.503370365107362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.83854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>908377.6781872292</v>
+        <v>1208702.123842375</v>
       </c>
     </row>
     <row r="4">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>674.3961706063834</v>
+        <v>897.5658800341331</v>
       </c>
       <c r="AB4" t="n">
-        <v>922.7385928828925</v>
+        <v>1228.089234874655</v>
       </c>
       <c r="AC4" t="n">
-        <v>834.6737166498974</v>
+        <v>1110.882121932284</v>
       </c>
       <c r="AD4" t="n">
-        <v>674396.1706063834</v>
+        <v>897565.8800341331</v>
       </c>
       <c r="AE4" t="n">
-        <v>922738.5928828925</v>
+        <v>1228089.234874655</v>
       </c>
       <c r="AF4" t="n">
         <v>3.770048667697459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>45</v>
+        <v>44.453125</v>
       </c>
       <c r="AH4" t="n">
-        <v>834673.7166498974</v>
+        <v>1110882.121932284</v>
       </c>
     </row>
     <row r="5">
@@ -11332,28 +11332,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>652.2499605984714</v>
+        <v>865.7449067461748</v>
       </c>
       <c r="AB5" t="n">
-        <v>892.4371713282363</v>
+        <v>1184.550375379808</v>
       </c>
       <c r="AC5" t="n">
-        <v>807.2642202401054</v>
+        <v>1071.498550080451</v>
       </c>
       <c r="AD5" t="n">
-        <v>652249.9605984713</v>
+        <v>865744.9067461748</v>
       </c>
       <c r="AE5" t="n">
-        <v>892437.1713282363</v>
+        <v>1184550.375379808</v>
       </c>
       <c r="AF5" t="n">
         <v>3.887557012419834e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.09895833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>807264.2202401054</v>
+        <v>1071498.550080451</v>
       </c>
     </row>
     <row r="6">
@@ -11438,28 +11438,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>632.2078411481997</v>
+        <v>836.0280240158573</v>
       </c>
       <c r="AB6" t="n">
-        <v>865.0146593004681</v>
+        <v>1143.890425411848</v>
       </c>
       <c r="AC6" t="n">
-        <v>782.4588742725302</v>
+        <v>1034.719128670836</v>
       </c>
       <c r="AD6" t="n">
-        <v>632207.8411481997</v>
+        <v>836028.0240158574</v>
       </c>
       <c r="AE6" t="n">
-        <v>865014.6593004682</v>
+        <v>1143890.425411848</v>
       </c>
       <c r="AF6" t="n">
         <v>3.981962676005662e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.08333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>782458.8742725302</v>
+        <v>1034719.128670836</v>
       </c>
     </row>
     <row r="7">
@@ -11544,28 +11544,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>616.5786700109501</v>
+        <v>820.4661726863122</v>
       </c>
       <c r="AB7" t="n">
-        <v>843.6301378401157</v>
+        <v>1122.598013882337</v>
       </c>
       <c r="AC7" t="n">
-        <v>763.1152615269895</v>
+        <v>1015.458835013614</v>
       </c>
       <c r="AD7" t="n">
-        <v>616578.6700109501</v>
+        <v>820466.1726863122</v>
       </c>
       <c r="AE7" t="n">
-        <v>843630.1378401157</v>
+        <v>1122598.013882337</v>
       </c>
       <c r="AF7" t="n">
         <v>4.034217208269938e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.53645833333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>763115.2615269894</v>
+        <v>1015458.835013614</v>
       </c>
     </row>
     <row r="8">
@@ -11650,28 +11650,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>610.2755306958651</v>
+        <v>814.0615481447419</v>
       </c>
       <c r="AB8" t="n">
-        <v>835.0059045543354</v>
+        <v>1113.834924032467</v>
       </c>
       <c r="AC8" t="n">
-        <v>755.3141129618164</v>
+        <v>1007.532082159942</v>
       </c>
       <c r="AD8" t="n">
-        <v>610275.530695865</v>
+        <v>814061.5481447419</v>
       </c>
       <c r="AE8" t="n">
-        <v>835005.9045543354</v>
+        <v>1113834.924032467</v>
       </c>
       <c r="AF8" t="n">
         <v>4.082160098093689e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.04166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>755314.1129618164</v>
+        <v>1007532.082159942</v>
       </c>
     </row>
     <row r="9">
@@ -11756,28 +11756,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>596.3586000683566</v>
+        <v>800.211937324938</v>
       </c>
       <c r="AB9" t="n">
-        <v>815.964146098131</v>
+        <v>1094.885275507105</v>
       </c>
       <c r="AC9" t="n">
-        <v>738.0896732073965</v>
+        <v>990.3909614938411</v>
       </c>
       <c r="AD9" t="n">
-        <v>596358.6000683566</v>
+        <v>800211.937324938</v>
       </c>
       <c r="AE9" t="n">
-        <v>815964.146098131</v>
+        <v>1094885.275507105</v>
       </c>
       <c r="AF9" t="n">
         <v>4.105841955080453e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.80729166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>738089.6732073964</v>
+        <v>990390.9614938411</v>
       </c>
     </row>
     <row r="10">
@@ -11862,28 +11862,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>593.6549175154829</v>
+        <v>797.5082547720644</v>
       </c>
       <c r="AB10" t="n">
-        <v>812.2648483512331</v>
+        <v>1091.185977760207</v>
       </c>
       <c r="AC10" t="n">
-        <v>734.7434312454656</v>
+        <v>987.0447195319103</v>
       </c>
       <c r="AD10" t="n">
-        <v>593654.9175154829</v>
+        <v>797508.2547720644</v>
       </c>
       <c r="AE10" t="n">
-        <v>812264.8483512332</v>
+        <v>1091185.977760207</v>
       </c>
       <c r="AF10" t="n">
         <v>4.117682883573836e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.703125</v>
       </c>
       <c r="AH10" t="n">
-        <v>734743.4312454655</v>
+        <v>987044.7195319104</v>
       </c>
     </row>
     <row r="11">
@@ -11968,28 +11968,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>588.9763725129638</v>
+        <v>792.7282245430599</v>
       </c>
       <c r="AB11" t="n">
-        <v>805.8634566759483</v>
+        <v>1084.645729520833</v>
       </c>
       <c r="AC11" t="n">
-        <v>728.9529794072602</v>
+        <v>981.128663405206</v>
       </c>
       <c r="AD11" t="n">
-        <v>588976.3725129638</v>
+        <v>792728.2245430599</v>
       </c>
       <c r="AE11" t="n">
-        <v>805863.4566759483</v>
+        <v>1084645.729520833</v>
       </c>
       <c r="AF11" t="n">
         <v>4.150245436930639e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.390625</v>
       </c>
       <c r="AH11" t="n">
-        <v>728952.9794072602</v>
+        <v>981128.6634052061</v>
       </c>
     </row>
     <row r="12">
@@ -12074,28 +12074,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>584.486508758157</v>
+        <v>778.597762926988</v>
       </c>
       <c r="AB12" t="n">
-        <v>799.7202270078126</v>
+        <v>1065.311808545753</v>
       </c>
       <c r="AC12" t="n">
-        <v>723.3960509565743</v>
+        <v>963.6399447126598</v>
       </c>
       <c r="AD12" t="n">
-        <v>584486.508758157</v>
+        <v>778597.7629269881</v>
       </c>
       <c r="AE12" t="n">
-        <v>799720.2270078126</v>
+        <v>1065311.808545753</v>
       </c>
       <c r="AF12" t="n">
         <v>4.163952598719175e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>41</v>
+        <v>40.234375</v>
       </c>
       <c r="AH12" t="n">
-        <v>723396.0509565743</v>
+        <v>963639.9447126598</v>
       </c>
     </row>
     <row r="13">
@@ -12180,28 +12180,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>581.0682085908815</v>
+        <v>775.1794627597125</v>
       </c>
       <c r="AB13" t="n">
-        <v>795.0431579141859</v>
+        <v>1060.634739452127</v>
       </c>
       <c r="AC13" t="n">
-        <v>719.1653547729356</v>
+        <v>959.4092485290213</v>
       </c>
       <c r="AD13" t="n">
-        <v>581068.2085908814</v>
+        <v>775179.4627597125</v>
       </c>
       <c r="AE13" t="n">
-        <v>795043.1579141859</v>
+        <v>1060634.739452127</v>
       </c>
       <c r="AF13" t="n">
         <v>4.175343057106831e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>41</v>
+        <v>40.13020833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>719165.3547729356</v>
+        <v>959409.2485290213</v>
       </c>
     </row>
     <row r="14">
@@ -12286,28 +12286,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>579.1534776111523</v>
+        <v>773.2647317799833</v>
       </c>
       <c r="AB14" t="n">
-        <v>792.4233385157515</v>
+        <v>1058.014920053692</v>
       </c>
       <c r="AC14" t="n">
-        <v>716.7955672609482</v>
+        <v>957.0394610170338</v>
       </c>
       <c r="AD14" t="n">
-        <v>579153.4776111523</v>
+        <v>773264.7317799833</v>
       </c>
       <c r="AE14" t="n">
-        <v>792423.3385157515</v>
+        <v>1058014.920053692</v>
       </c>
       <c r="AF14" t="n">
         <v>4.174313411150885e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>41</v>
+        <v>40.15625</v>
       </c>
       <c r="AH14" t="n">
-        <v>716795.5672609482</v>
+        <v>957039.4610170338</v>
       </c>
     </row>
     <row r="15">
@@ -12392,28 +12392,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>578.0918262193634</v>
+        <v>772.2030803881944</v>
       </c>
       <c r="AB15" t="n">
-        <v>790.9707402447521</v>
+        <v>1056.562321782693</v>
       </c>
       <c r="AC15" t="n">
-        <v>715.4816029301984</v>
+        <v>955.725496686284</v>
       </c>
       <c r="AD15" t="n">
-        <v>578091.8262193634</v>
+        <v>772203.0803881944</v>
       </c>
       <c r="AE15" t="n">
-        <v>790970.740244752</v>
+        <v>1056562.321782693</v>
       </c>
       <c r="AF15" t="n">
         <v>4.187119632727967e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>41</v>
+        <v>40.02604166666666</v>
       </c>
       <c r="AH15" t="n">
-        <v>715481.6029301984</v>
+        <v>955725.4966862841</v>
       </c>
     </row>
     <row r="16">
@@ -12498,19 +12498,19 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>568.926489354609</v>
+        <v>772.7456611924094</v>
       </c>
       <c r="AB16" t="n">
-        <v>778.4303220002698</v>
+        <v>1057.304704775996</v>
       </c>
       <c r="AC16" t="n">
-        <v>704.138024602382</v>
+        <v>956.3970276886471</v>
       </c>
       <c r="AD16" t="n">
-        <v>568926.4893546089</v>
+        <v>772745.6611924095</v>
       </c>
       <c r="AE16" t="n">
-        <v>778430.3220002698</v>
+        <v>1057304.704775996</v>
       </c>
       <c r="AF16" t="n">
         <v>4.1884066901729e-06</v>
@@ -12519,7 +12519,7 @@
         <v>40</v>
       </c>
       <c r="AH16" t="n">
-        <v>704138.024602382</v>
+        <v>956397.027688647</v>
       </c>
     </row>
   </sheetData>
@@ -12795,28 +12795,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>493.8187636817891</v>
+        <v>686.7986493074875</v>
       </c>
       <c r="AB2" t="n">
-        <v>675.6646182157174</v>
+        <v>939.708211400487</v>
       </c>
       <c r="AC2" t="n">
-        <v>611.1801353544563</v>
+        <v>850.0237785931819</v>
       </c>
       <c r="AD2" t="n">
-        <v>493818.763681789</v>
+        <v>686798.6493074875</v>
       </c>
       <c r="AE2" t="n">
-        <v>675664.6182157174</v>
+        <v>939708.211400487</v>
       </c>
       <c r="AF2" t="n">
         <v>7.229932965173564e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>42</v>
+        <v>41.5625</v>
       </c>
       <c r="AH2" t="n">
-        <v>611180.1353544563</v>
+        <v>850023.7785931819</v>
       </c>
     </row>
     <row r="3">
@@ -12901,28 +12901,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>464.3383537225397</v>
+        <v>657.2499085106766</v>
       </c>
       <c r="AB3" t="n">
-        <v>635.3282207255756</v>
+        <v>899.2783206438496</v>
       </c>
       <c r="AC3" t="n">
-        <v>574.6933870282842</v>
+        <v>813.45245986665</v>
       </c>
       <c r="AD3" t="n">
-        <v>464338.3537225397</v>
+        <v>657249.9085106766</v>
       </c>
       <c r="AE3" t="n">
-        <v>635328.2207255757</v>
+        <v>899278.3206438496</v>
       </c>
       <c r="AF3" t="n">
         <v>7.522706317636436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>574693.3870282841</v>
+        <v>813452.4598666499</v>
       </c>
     </row>
   </sheetData>
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>787.7815058644388</v>
+        <v>1046.63532260267</v>
       </c>
       <c r="AB2" t="n">
-        <v>1077.877410790917</v>
+        <v>1432.052622676589</v>
       </c>
       <c r="AC2" t="n">
-        <v>975.006303515479</v>
+        <v>1295.379530266814</v>
       </c>
       <c r="AD2" t="n">
-        <v>787781.5058644388</v>
+        <v>1046635.32260267</v>
       </c>
       <c r="AE2" t="n">
-        <v>1077877.410790917</v>
+        <v>1432052.622676589</v>
       </c>
       <c r="AF2" t="n">
         <v>3.540039341144755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.76041666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>975006.303515479</v>
+        <v>1295379.530266814</v>
       </c>
     </row>
     <row r="3">
@@ -13304,28 +13304,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>646.4668157552039</v>
+        <v>876.4869703050948</v>
       </c>
       <c r="AB3" t="n">
-        <v>884.524417419334</v>
+        <v>1199.248140647519</v>
       </c>
       <c r="AC3" t="n">
-        <v>800.1066484586489</v>
+        <v>1084.793581259456</v>
       </c>
       <c r="AD3" t="n">
-        <v>646466.8157552039</v>
+        <v>876486.9703050948</v>
       </c>
       <c r="AE3" t="n">
-        <v>884524.4174193339</v>
+        <v>1199248.140647519</v>
       </c>
       <c r="AF3" t="n">
         <v>4.156147306205437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.921875</v>
       </c>
       <c r="AH3" t="n">
-        <v>800106.6484586489</v>
+        <v>1084793.581259456</v>
       </c>
     </row>
     <row r="4">
@@ -13410,28 +13410,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>607.1030112228872</v>
+        <v>818.0146090431534</v>
       </c>
       <c r="AB4" t="n">
-        <v>830.6651234497258</v>
+        <v>1119.243676350413</v>
       </c>
       <c r="AC4" t="n">
-        <v>751.3876099135065</v>
+        <v>1012.424630747894</v>
       </c>
       <c r="AD4" t="n">
-        <v>607103.0112228872</v>
+        <v>818014.6090431535</v>
       </c>
       <c r="AE4" t="n">
-        <v>830665.1234497258</v>
+        <v>1119243.676350413</v>
       </c>
       <c r="AF4" t="n">
         <v>4.388048279087913e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.55208333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>751387.6099135064</v>
+        <v>1012424.630747894</v>
       </c>
     </row>
     <row r="5">
@@ -13516,28 +13516,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>586.3445885637057</v>
+        <v>787.6004227926745</v>
       </c>
       <c r="AB5" t="n">
-        <v>802.2625337704599</v>
+        <v>1077.629644943308</v>
       </c>
       <c r="AC5" t="n">
-        <v>725.6957235299444</v>
+        <v>974.782184092624</v>
       </c>
       <c r="AD5" t="n">
-        <v>586344.5885637057</v>
+        <v>787600.4227926745</v>
       </c>
       <c r="AE5" t="n">
-        <v>802262.5337704598</v>
+        <v>1077629.644943308</v>
       </c>
       <c r="AF5" t="n">
         <v>4.507225587971858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.43229166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>725695.7235299444</v>
+        <v>974782.184092624</v>
       </c>
     </row>
     <row r="6">
@@ -13622,28 +13622,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>569.2425838810192</v>
+        <v>770.5657379176926</v>
       </c>
       <c r="AB6" t="n">
-        <v>778.8628164764107</v>
+        <v>1054.322037580101</v>
       </c>
       <c r="AC6" t="n">
-        <v>704.5292424127298</v>
+        <v>953.6990220637284</v>
       </c>
       <c r="AD6" t="n">
-        <v>569242.5838810191</v>
+        <v>770565.7379176925</v>
       </c>
       <c r="AE6" t="n">
-        <v>778862.8164764107</v>
+        <v>1054322.037580101</v>
       </c>
       <c r="AF6" t="n">
         <v>4.58768102754333e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>704529.2424127298</v>
+        <v>953699.0220637284</v>
       </c>
     </row>
     <row r="7">
@@ -13728,28 +13728,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>563.4454329362277</v>
+        <v>764.6671017464157</v>
       </c>
       <c r="AB7" t="n">
-        <v>770.9308988014973</v>
+        <v>1046.251263341098</v>
       </c>
       <c r="AC7" t="n">
-        <v>697.3543358281939</v>
+        <v>946.3985111906934</v>
       </c>
       <c r="AD7" t="n">
-        <v>563445.4329362276</v>
+        <v>764667.1017464157</v>
       </c>
       <c r="AE7" t="n">
-        <v>770930.8988014973</v>
+        <v>1046251.263341098</v>
       </c>
       <c r="AF7" t="n">
         <v>4.629773133629295e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.33854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>697354.3358281939</v>
+        <v>946398.5111906934</v>
       </c>
     </row>
     <row r="8">
@@ -13834,28 +13834,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>547.1801610211412</v>
+        <v>748.4691496390337</v>
       </c>
       <c r="AB8" t="n">
-        <v>748.6760361941228</v>
+        <v>1024.088510664565</v>
       </c>
       <c r="AC8" t="n">
-        <v>677.2234460731714</v>
+        <v>926.3509405239899</v>
       </c>
       <c r="AD8" t="n">
-        <v>547180.1610211412</v>
+        <v>748469.1496390337</v>
       </c>
       <c r="AE8" t="n">
-        <v>748676.0361941229</v>
+        <v>1024088.510664565</v>
       </c>
       <c r="AF8" t="n">
         <v>4.674518404834821e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.94791666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>677223.4460731714</v>
+        <v>926350.94052399</v>
       </c>
     </row>
     <row r="9">
@@ -13940,28 +13940,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>544.0837452736074</v>
+        <v>745.3727338915</v>
       </c>
       <c r="AB9" t="n">
-        <v>744.4393835641255</v>
+        <v>1019.851858034567</v>
       </c>
       <c r="AC9" t="n">
-        <v>673.3911336240017</v>
+        <v>922.5186280748203</v>
       </c>
       <c r="AD9" t="n">
-        <v>544083.7452736074</v>
+        <v>745372.7338915</v>
       </c>
       <c r="AE9" t="n">
-        <v>744439.3835641255</v>
+        <v>1019851.858034567</v>
       </c>
       <c r="AF9" t="n">
         <v>4.686063258463169e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.84375</v>
       </c>
       <c r="AH9" t="n">
-        <v>673391.1336240016</v>
+        <v>922518.6280748203</v>
       </c>
     </row>
     <row r="10">
@@ -14046,28 +14046,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>540.7250411320528</v>
+        <v>742.0140297499453</v>
       </c>
       <c r="AB10" t="n">
-        <v>739.8438563820813</v>
+        <v>1015.256330852523</v>
       </c>
       <c r="AC10" t="n">
-        <v>669.2341971063489</v>
+        <v>918.3616915571675</v>
       </c>
       <c r="AD10" t="n">
-        <v>540725.0411320528</v>
+        <v>742014.0297499453</v>
       </c>
       <c r="AE10" t="n">
-        <v>739843.8563820813</v>
+        <v>1015256.330852523</v>
       </c>
       <c r="AF10" t="n">
         <v>4.701623713353552e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.71354166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>669234.1971063489</v>
+        <v>918361.6915571676</v>
       </c>
     </row>
     <row r="11">
@@ -14152,28 +14152,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>540.7273316681634</v>
+        <v>742.0163202860559</v>
       </c>
       <c r="AB11" t="n">
-        <v>739.8469903946391</v>
+        <v>1015.259464865081</v>
       </c>
       <c r="AC11" t="n">
-        <v>669.2370320131467</v>
+        <v>918.3645264639654</v>
       </c>
       <c r="AD11" t="n">
-        <v>540727.3316681634</v>
+        <v>742016.3202860559</v>
       </c>
       <c r="AE11" t="n">
-        <v>739846.9903946391</v>
+        <v>1015259.464865081</v>
       </c>
       <c r="AF11" t="n">
         <v>4.713885638635835e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.609375</v>
       </c>
       <c r="AH11" t="n">
-        <v>669237.0320131468</v>
+        <v>918364.5264639654</v>
       </c>
     </row>
   </sheetData>
@@ -14449,28 +14449,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>862.5659571405039</v>
+        <v>1142.379248872411</v>
       </c>
       <c r="AB2" t="n">
-        <v>1180.20079628397</v>
+        <v>1563.053686522765</v>
       </c>
       <c r="AC2" t="n">
-        <v>1067.564088708848</v>
+        <v>1413.878036440659</v>
       </c>
       <c r="AD2" t="n">
-        <v>862565.9571405039</v>
+        <v>1142379.248872411</v>
       </c>
       <c r="AE2" t="n">
-        <v>1180200.79628397</v>
+        <v>1563053.686522766</v>
       </c>
       <c r="AF2" t="n">
         <v>3.169159068816224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1067564.088708848</v>
+        <v>1413878.036440659</v>
       </c>
     </row>
     <row r="3">
@@ -14555,28 +14555,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>694.0266013407137</v>
+        <v>925.5171210977663</v>
       </c>
       <c r="AB3" t="n">
-        <v>949.5978142470856</v>
+        <v>1266.333356019644</v>
       </c>
       <c r="AC3" t="n">
-        <v>858.969531624246</v>
+        <v>1145.476277831157</v>
       </c>
       <c r="AD3" t="n">
-        <v>694026.6013407137</v>
+        <v>925517.1210977663</v>
       </c>
       <c r="AE3" t="n">
-        <v>949597.8142470856</v>
+        <v>1266333.356019644</v>
       </c>
       <c r="AF3" t="n">
         <v>3.807972517440536e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.27604166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>858969.5316242459</v>
+        <v>1145476.277831157</v>
       </c>
     </row>
     <row r="4">
@@ -14661,28 +14661,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>640.8234587884151</v>
+        <v>853.0459630973886</v>
       </c>
       <c r="AB4" t="n">
-        <v>876.8029274500354</v>
+        <v>1167.175120441684</v>
       </c>
       <c r="AC4" t="n">
-        <v>793.1220866548408</v>
+        <v>1055.781565087299</v>
       </c>
       <c r="AD4" t="n">
-        <v>640823.4587884151</v>
+        <v>853045.9630973886</v>
       </c>
       <c r="AE4" t="n">
-        <v>876802.9274500355</v>
+        <v>1167175.120441684</v>
       </c>
       <c r="AF4" t="n">
         <v>4.05448222075583e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>43.46354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>793122.0866548409</v>
+        <v>1055781.565087299</v>
       </c>
     </row>
     <row r="5">
@@ -14767,28 +14767,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>618.8048963656258</v>
+        <v>821.4104756599503</v>
       </c>
       <c r="AB5" t="n">
-        <v>846.6761589527583</v>
+        <v>1123.890050870576</v>
       </c>
       <c r="AC5" t="n">
-        <v>765.8705746597589</v>
+        <v>1016.627561805081</v>
       </c>
       <c r="AD5" t="n">
-        <v>618804.8963656258</v>
+        <v>821410.4756599503</v>
       </c>
       <c r="AE5" t="n">
-        <v>846676.1589527583</v>
+        <v>1123890.050870576</v>
       </c>
       <c r="AF5" t="n">
         <v>4.181324390995496e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>43</v>
+        <v>42.16145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>765870.5746597588</v>
+        <v>1016627.561805081</v>
       </c>
     </row>
     <row r="6">
@@ -14873,28 +14873,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>600.7285893805658</v>
+        <v>803.3000032561093</v>
       </c>
       <c r="AB6" t="n">
-        <v>821.9433582654176</v>
+        <v>1099.110503549987</v>
       </c>
       <c r="AC6" t="n">
-        <v>743.498237757314</v>
+        <v>994.2129397024561</v>
       </c>
       <c r="AD6" t="n">
-        <v>600728.5893805658</v>
+        <v>803300.0032561093</v>
       </c>
       <c r="AE6" t="n">
-        <v>821943.3582654176</v>
+        <v>1099110.503549987</v>
       </c>
       <c r="AF6" t="n">
         <v>4.25848558313702e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.38020833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>743498.237757314</v>
+        <v>994212.9397024561</v>
       </c>
     </row>
     <row r="7">
@@ -14979,28 +14979,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>584.9860307333761</v>
+        <v>797.2075240124925</v>
       </c>
       <c r="AB7" t="n">
-        <v>800.4036950116613</v>
+        <v>1090.774504667656</v>
       </c>
       <c r="AC7" t="n">
-        <v>724.0142897333891</v>
+        <v>986.6725168538065</v>
       </c>
       <c r="AD7" t="n">
-        <v>584986.030733376</v>
+        <v>797207.5240124925</v>
       </c>
       <c r="AE7" t="n">
-        <v>800403.6950116613</v>
+        <v>1090774.504667656</v>
       </c>
       <c r="AF7" t="n">
         <v>4.303834704834232e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.96354166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>724014.289733389</v>
+        <v>986672.5168538066</v>
       </c>
     </row>
     <row r="8">
@@ -15085,28 +15085,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>580.4729043304525</v>
+        <v>783.1116380137006</v>
       </c>
       <c r="AB8" t="n">
-        <v>794.2286363620964</v>
+        <v>1071.487891577508</v>
       </c>
       <c r="AC8" t="n">
-        <v>718.4285700145895</v>
+        <v>969.2265910480504</v>
       </c>
       <c r="AD8" t="n">
-        <v>580472.9043304524</v>
+        <v>783111.6380137006</v>
       </c>
       <c r="AE8" t="n">
-        <v>794228.6363620964</v>
+        <v>1071487.891577508</v>
       </c>
       <c r="AF8" t="n">
         <v>4.34383669128655e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.57291666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>718428.5700145895</v>
+        <v>969226.5910480504</v>
       </c>
     </row>
     <row r="9">
@@ -15191,28 +15191,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>576.0678580199293</v>
+        <v>778.6051064766922</v>
       </c>
       <c r="AB9" t="n">
-        <v>788.201457663111</v>
+        <v>1065.321856314433</v>
       </c>
       <c r="AC9" t="n">
-        <v>712.9766167914366</v>
+        <v>963.6490335363987</v>
       </c>
       <c r="AD9" t="n">
-        <v>576067.8580199293</v>
+        <v>778605.1064766921</v>
       </c>
       <c r="AE9" t="n">
-        <v>788201.457663111</v>
+        <v>1065321.856314433</v>
       </c>
       <c r="AF9" t="n">
         <v>4.37064005276729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>41</v>
+        <v>40.33854166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>712976.6167914367</v>
+        <v>963649.0335363988</v>
       </c>
     </row>
     <row r="10">
@@ -15297,28 +15297,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>571.0013201748295</v>
+        <v>763.955809035724</v>
       </c>
       <c r="AB10" t="n">
-        <v>781.2691970635713</v>
+        <v>1045.27804127431</v>
       </c>
       <c r="AC10" t="n">
-        <v>706.7059614140281</v>
+        <v>945.5181720720338</v>
       </c>
       <c r="AD10" t="n">
-        <v>571001.3201748296</v>
+        <v>763955.809035724</v>
       </c>
       <c r="AE10" t="n">
-        <v>781269.1970635713</v>
+        <v>1045278.04127431</v>
       </c>
       <c r="AF10" t="n">
         <v>4.403535087311835e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.02604166666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>706705.9614140282</v>
+        <v>945518.1720720339</v>
       </c>
     </row>
     <row r="11">
@@ -15403,28 +15403,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>557.8711772493064</v>
+        <v>760.4757455137737</v>
       </c>
       <c r="AB11" t="n">
-        <v>763.3039562518469</v>
+        <v>1040.51646483401</v>
       </c>
       <c r="AC11" t="n">
-        <v>690.4552979710008</v>
+        <v>941.2110338042821</v>
       </c>
       <c r="AD11" t="n">
-        <v>557871.1772493063</v>
+        <v>760475.7455137738</v>
       </c>
       <c r="AE11" t="n">
-        <v>763303.9562518469</v>
+        <v>1040516.46483401</v>
       </c>
       <c r="AF11" t="n">
         <v>4.414500098826683e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.921875</v>
       </c>
       <c r="AH11" t="n">
-        <v>690455.2979710009</v>
+        <v>941211.0338042821</v>
       </c>
     </row>
     <row r="12">
@@ -15509,28 +15509,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>555.014133587346</v>
+        <v>757.6187018518134</v>
       </c>
       <c r="AB12" t="n">
-        <v>759.3948230696822</v>
+        <v>1036.607331651845</v>
       </c>
       <c r="AC12" t="n">
-        <v>686.9192469732391</v>
+        <v>937.6749828065203</v>
       </c>
       <c r="AD12" t="n">
-        <v>555014.1335873461</v>
+        <v>757618.7018518134</v>
       </c>
       <c r="AE12" t="n">
-        <v>759394.8230696821</v>
+        <v>1036607.331651845</v>
       </c>
       <c r="AF12" t="n">
         <v>4.415041580876799e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>39.921875</v>
       </c>
       <c r="AH12" t="n">
-        <v>686919.2469732391</v>
+        <v>937674.9828065203</v>
       </c>
     </row>
     <row r="13">
@@ -15615,28 +15615,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>554.7870445200484</v>
+        <v>757.3916127845156</v>
       </c>
       <c r="AB13" t="n">
-        <v>759.0841097893428</v>
+        <v>1036.296618371506</v>
       </c>
       <c r="AC13" t="n">
-        <v>686.6381877322865</v>
+        <v>937.3939235655677</v>
       </c>
       <c r="AD13" t="n">
-        <v>554787.0445200484</v>
+        <v>757391.6127845156</v>
       </c>
       <c r="AE13" t="n">
-        <v>759084.1097893429</v>
+        <v>1036296.618371506</v>
       </c>
       <c r="AF13" t="n">
         <v>4.427631038541995e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>40</v>
+        <v>39.81770833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>686638.1877322865</v>
+        <v>937393.9235655677</v>
       </c>
     </row>
     <row r="14">
@@ -15721,28 +15721,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>555.6698623893917</v>
+        <v>758.274430653859</v>
       </c>
       <c r="AB14" t="n">
-        <v>760.2920201453539</v>
+        <v>1037.504528727517</v>
       </c>
       <c r="AC14" t="n">
-        <v>687.7308168192328</v>
+        <v>938.4865526525141</v>
       </c>
       <c r="AD14" t="n">
-        <v>555669.8623893918</v>
+        <v>758274.4306538589</v>
       </c>
       <c r="AE14" t="n">
-        <v>760292.020145354</v>
+        <v>1037504.528727517</v>
       </c>
       <c r="AF14" t="n">
         <v>4.427157241748143e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>40</v>
+        <v>39.81770833333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>687730.8168192328</v>
+        <v>938486.5526525141</v>
       </c>
     </row>
   </sheetData>
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1023.953089558389</v>
+        <v>1336.295477977505</v>
       </c>
       <c r="AB2" t="n">
-        <v>1401.017790755905</v>
+        <v>1828.378426164603</v>
       </c>
       <c r="AC2" t="n">
-        <v>1267.30661914698</v>
+        <v>1653.880555316691</v>
       </c>
       <c r="AD2" t="n">
-        <v>1023953.089558389</v>
+        <v>1336295.477977505</v>
       </c>
       <c r="AE2" t="n">
-        <v>1401017.790755905</v>
+        <v>1828378.426164603</v>
       </c>
       <c r="AF2" t="n">
         <v>2.585346453570124e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>62</v>
+        <v>61.97916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1267306.61914698</v>
+        <v>1653880.555316691</v>
       </c>
     </row>
     <row r="3">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>782.4435517517267</v>
+        <v>1026.412940944521</v>
       </c>
       <c r="AB3" t="n">
-        <v>1070.57378647999</v>
+        <v>1404.383467943396</v>
       </c>
       <c r="AC3" t="n">
-        <v>968.3997268580848</v>
+        <v>1270.351080827454</v>
       </c>
       <c r="AD3" t="n">
-        <v>782443.5517517267</v>
+        <v>1026412.940944521</v>
       </c>
       <c r="AE3" t="n">
-        <v>1070573.78647999</v>
+        <v>1404383.467943396</v>
       </c>
       <c r="AF3" t="n">
         <v>3.2510340941331e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>968399.7268580848</v>
+        <v>1270351.080827454</v>
       </c>
     </row>
     <row r="4">
@@ -16230,28 +16230,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>709.3030158252831</v>
+        <v>943.54272443023</v>
       </c>
       <c r="AB4" t="n">
-        <v>970.4996784927156</v>
+        <v>1290.996781732616</v>
       </c>
       <c r="AC4" t="n">
-        <v>877.8765512822237</v>
+        <v>1167.785860809417</v>
       </c>
       <c r="AD4" t="n">
-        <v>709303.015825283</v>
+        <v>943542.72443023</v>
       </c>
       <c r="AE4" t="n">
-        <v>970499.6784927156</v>
+        <v>1290996.781732616</v>
       </c>
       <c r="AF4" t="n">
         <v>3.518810470113328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.546875</v>
       </c>
       <c r="AH4" t="n">
-        <v>877876.5512822237</v>
+        <v>1167785.860809417</v>
       </c>
     </row>
     <row r="5">
@@ -16336,28 +16336,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>674.3682112331686</v>
+        <v>898.8450848613446</v>
       </c>
       <c r="AB5" t="n">
-        <v>922.7003376349797</v>
+        <v>1229.83949935378</v>
       </c>
       <c r="AC5" t="n">
-        <v>834.6391124291539</v>
+        <v>1112.465343626033</v>
       </c>
       <c r="AD5" t="n">
-        <v>674368.2112331686</v>
+        <v>898845.0848613447</v>
       </c>
       <c r="AE5" t="n">
-        <v>922700.3376349797</v>
+        <v>1229839.49935378</v>
       </c>
       <c r="AF5" t="n">
         <v>3.650052889682681e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.90625</v>
       </c>
       <c r="AH5" t="n">
-        <v>834639.1124291539</v>
+        <v>1112465.343626033</v>
       </c>
     </row>
     <row r="6">
@@ -16442,28 +16442,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>654.1404559683316</v>
+        <v>868.8886600385169</v>
       </c>
       <c r="AB6" t="n">
-        <v>895.0238304960485</v>
+        <v>1188.851797326997</v>
       </c>
       <c r="AC6" t="n">
-        <v>809.6040122873405</v>
+        <v>1075.389450354085</v>
       </c>
       <c r="AD6" t="n">
-        <v>654140.4559683315</v>
+        <v>868888.660038517</v>
       </c>
       <c r="AE6" t="n">
-        <v>895023.8304960486</v>
+        <v>1188851.797326997</v>
       </c>
       <c r="AF6" t="n">
         <v>3.739516780003281e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.83854166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>809604.0122873406</v>
+        <v>1075389.450354085</v>
       </c>
     </row>
     <row r="7">
@@ -16548,28 +16548,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>647.0325734598281</v>
+        <v>851.9847881643187</v>
       </c>
       <c r="AB7" t="n">
-        <v>885.2985120702692</v>
+        <v>1165.723174082524</v>
       </c>
       <c r="AC7" t="n">
-        <v>800.8068646025475</v>
+        <v>1054.468190450838</v>
       </c>
       <c r="AD7" t="n">
-        <v>647032.573459828</v>
+        <v>851984.7881643188</v>
       </c>
       <c r="AE7" t="n">
-        <v>885298.5120702692</v>
+        <v>1165723.174082524</v>
       </c>
       <c r="AF7" t="n">
         <v>3.79686227228581e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>43</v>
+        <v>42.21354166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>800806.8646025475</v>
+        <v>1054468.190450838</v>
       </c>
     </row>
     <row r="8">
@@ -16654,28 +16654,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>631.6078319988681</v>
+        <v>846.3218706502727</v>
       </c>
       <c r="AB8" t="n">
-        <v>864.1937003118171</v>
+        <v>1157.974920509517</v>
       </c>
       <c r="AC8" t="n">
-        <v>781.7162664575328</v>
+        <v>1047.459419324097</v>
       </c>
       <c r="AD8" t="n">
-        <v>631607.831998868</v>
+        <v>846321.8706502727</v>
       </c>
       <c r="AE8" t="n">
-        <v>864193.7003118171</v>
+        <v>1157974.920509517</v>
       </c>
       <c r="AF8" t="n">
         <v>3.835933503615646e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.77083333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>781716.2664575328</v>
+        <v>1047459.419324097</v>
       </c>
     </row>
     <row r="9">
@@ -16760,28 +16760,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>626.3474297804845</v>
+        <v>831.2654790661943</v>
       </c>
       <c r="AB9" t="n">
-        <v>856.9961859240577</v>
+        <v>1137.374101303064</v>
       </c>
       <c r="AC9" t="n">
-        <v>775.2056727411663</v>
+        <v>1028.824713389276</v>
       </c>
       <c r="AD9" t="n">
-        <v>626347.4297804845</v>
+        <v>831265.4790661943</v>
       </c>
       <c r="AE9" t="n">
-        <v>856996.1859240577</v>
+        <v>1137374.101303064</v>
       </c>
       <c r="AF9" t="n">
         <v>3.871805201041307e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.38020833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>775205.6727411663</v>
+        <v>1028824.713389277</v>
       </c>
     </row>
     <row r="10">
@@ -16866,28 +16866,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>623.989111761754</v>
+        <v>828.9071610474638</v>
       </c>
       <c r="AB10" t="n">
-        <v>853.7694311691826</v>
+        <v>1134.147346548189</v>
       </c>
       <c r="AC10" t="n">
-        <v>772.2868749313176</v>
+        <v>1025.905915579428</v>
       </c>
       <c r="AD10" t="n">
-        <v>623989.111761754</v>
+        <v>828907.1610474638</v>
       </c>
       <c r="AE10" t="n">
-        <v>853769.4311691825</v>
+        <v>1134147.346548189</v>
       </c>
       <c r="AF10" t="n">
         <v>3.887679811565869e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>42</v>
+        <v>41.22395833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>772286.8749313176</v>
+        <v>1025905.915579428</v>
       </c>
     </row>
     <row r="11">
@@ -16972,28 +16972,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>608.9636777828758</v>
+        <v>813.9490468762901</v>
       </c>
       <c r="AB11" t="n">
-        <v>833.2109695239177</v>
+        <v>1113.680994833766</v>
       </c>
       <c r="AC11" t="n">
-        <v>753.6904840114946</v>
+        <v>1007.392843747924</v>
       </c>
       <c r="AD11" t="n">
-        <v>608963.6777828758</v>
+        <v>813949.0468762901</v>
       </c>
       <c r="AE11" t="n">
-        <v>833210.9695239177</v>
+        <v>1113680.994833766</v>
       </c>
       <c r="AF11" t="n">
         <v>3.917952324659223e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.88541666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>753690.4840114947</v>
+        <v>1007392.843747924</v>
       </c>
     </row>
     <row r="12">
@@ -17078,28 +17078,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>605.6088631562221</v>
+        <v>810.5942322496364</v>
       </c>
       <c r="AB12" t="n">
-        <v>828.6207641477544</v>
+        <v>1109.090789457603</v>
       </c>
       <c r="AC12" t="n">
-        <v>749.5383613940387</v>
+        <v>1003.240721130468</v>
       </c>
       <c r="AD12" t="n">
-        <v>605608.8631562222</v>
+        <v>810594.2322496364</v>
       </c>
       <c r="AE12" t="n">
-        <v>828620.7641477544</v>
+        <v>1109090.789457603</v>
       </c>
       <c r="AF12" t="n">
         <v>3.934503759663515e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>41</v>
+        <v>40.72916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>749538.3613940387</v>
+        <v>1003240.721130468</v>
       </c>
     </row>
     <row r="13">
@@ -17184,28 +17184,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>603.0828853955263</v>
+        <v>808.0682544889406</v>
       </c>
       <c r="AB13" t="n">
-        <v>825.1646099372964</v>
+        <v>1105.634635247145</v>
       </c>
       <c r="AC13" t="n">
-        <v>746.412057690684</v>
+        <v>1000.114417427113</v>
       </c>
       <c r="AD13" t="n">
-        <v>603082.8853955263</v>
+        <v>808068.2544889406</v>
       </c>
       <c r="AE13" t="n">
-        <v>825164.6099372964</v>
+        <v>1105634.635247145</v>
       </c>
       <c r="AF13" t="n">
         <v>3.946686600298645e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>41</v>
+        <v>40.59895833333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>746412.057690684</v>
+        <v>1000114.417427113</v>
       </c>
     </row>
     <row r="14">
@@ -17290,28 +17290,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>598.8293823574742</v>
+        <v>803.7132662244031</v>
       </c>
       <c r="AB14" t="n">
-        <v>819.3447794293231</v>
+        <v>1099.675948175082</v>
       </c>
       <c r="AC14" t="n">
-        <v>741.1476636382083</v>
+        <v>994.7244190861385</v>
       </c>
       <c r="AD14" t="n">
-        <v>598829.3823574742</v>
+        <v>803713.2662244032</v>
       </c>
       <c r="AE14" t="n">
-        <v>819344.7794293232</v>
+        <v>1099675.948175082</v>
       </c>
       <c r="AF14" t="n">
         <v>3.960469207885863e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>41</v>
+        <v>40.46875</v>
       </c>
       <c r="AH14" t="n">
-        <v>741147.6636382083</v>
+        <v>994724.4190861385</v>
       </c>
     </row>
     <row r="15">
@@ -17396,28 +17396,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>595.4342689216386</v>
+        <v>800.3181527885675</v>
       </c>
       <c r="AB15" t="n">
-        <v>814.6994354445792</v>
+        <v>1095.030604190338</v>
       </c>
       <c r="AC15" t="n">
-        <v>736.945664763587</v>
+        <v>990.5224202115172</v>
       </c>
       <c r="AD15" t="n">
-        <v>595434.2689216386</v>
+        <v>800318.1527885676</v>
       </c>
       <c r="AE15" t="n">
-        <v>814699.4354445792</v>
+        <v>1095030.604190338</v>
       </c>
       <c r="AF15" t="n">
         <v>3.959484735915347e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>41</v>
+        <v>40.46875</v>
       </c>
       <c r="AH15" t="n">
-        <v>736945.6647635871</v>
+        <v>990522.4202115173</v>
       </c>
     </row>
     <row r="16">
@@ -17502,28 +17502,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>592.9588521916664</v>
+        <v>797.8427360585956</v>
       </c>
       <c r="AB16" t="n">
-        <v>811.3124610669528</v>
+        <v>1091.643629812712</v>
       </c>
       <c r="AC16" t="n">
-        <v>733.8819384669131</v>
+        <v>987.4586939148433</v>
       </c>
       <c r="AD16" t="n">
-        <v>592958.8521916665</v>
+        <v>797842.7360585956</v>
       </c>
       <c r="AE16" t="n">
-        <v>811312.4610669528</v>
+        <v>1091643.629812712</v>
       </c>
       <c r="AF16" t="n">
         <v>3.977389819879098e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>41</v>
+        <v>40.28645833333334</v>
       </c>
       <c r="AH16" t="n">
-        <v>733881.9384669131</v>
+        <v>987458.6939148433</v>
       </c>
     </row>
     <row r="17">
@@ -17608,28 +17608,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>592.1963390820301</v>
+        <v>797.0802229489591</v>
       </c>
       <c r="AB17" t="n">
-        <v>810.2691569906441</v>
+        <v>1090.600325736403</v>
       </c>
       <c r="AC17" t="n">
-        <v>732.9382058673606</v>
+        <v>986.5149613152909</v>
       </c>
       <c r="AD17" t="n">
-        <v>592196.3390820301</v>
+        <v>797080.2229489591</v>
       </c>
       <c r="AE17" t="n">
-        <v>810269.1569906441</v>
+        <v>1090600.325736403</v>
       </c>
       <c r="AF17" t="n">
         <v>3.975851582425168e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>41</v>
+        <v>40.3125</v>
       </c>
       <c r="AH17" t="n">
-        <v>732938.2058673606</v>
+        <v>986514.9613152909</v>
       </c>
     </row>
     <row r="18">
@@ -17714,28 +17714,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>592.2150451607351</v>
+        <v>797.0989290276641</v>
       </c>
       <c r="AB18" t="n">
-        <v>810.2947514727822</v>
+        <v>1090.625920218541</v>
       </c>
       <c r="AC18" t="n">
-        <v>732.9613576480456</v>
+        <v>986.5381130959759</v>
       </c>
       <c r="AD18" t="n">
-        <v>592215.0451607351</v>
+        <v>797098.9290276641</v>
       </c>
       <c r="AE18" t="n">
-        <v>810294.7514727822</v>
+        <v>1090625.920218541</v>
       </c>
       <c r="AF18" t="n">
         <v>3.976528406904896e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>41</v>
+        <v>40.28645833333334</v>
       </c>
       <c r="AH18" t="n">
-        <v>732961.3576480455</v>
+        <v>986538.1130959758</v>
       </c>
     </row>
   </sheetData>
@@ -18011,28 +18011,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>725.945571331695</v>
+        <v>963.871801254142</v>
       </c>
       <c r="AB2" t="n">
-        <v>993.2707571543189</v>
+        <v>1318.811921498665</v>
       </c>
       <c r="AC2" t="n">
-        <v>898.4743901557732</v>
+        <v>1192.946362674988</v>
       </c>
       <c r="AD2" t="n">
-        <v>725945.571331695</v>
+        <v>963871.8012541421</v>
       </c>
       <c r="AE2" t="n">
-        <v>993270.7571543189</v>
+        <v>1318811.921498665</v>
       </c>
       <c r="AF2" t="n">
         <v>3.986621084457854e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.10416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>898474.3901557733</v>
+        <v>1192946.362674988</v>
       </c>
     </row>
     <row r="3">
@@ -18117,28 +18117,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>607.6288973658047</v>
+        <v>816.9617359018529</v>
       </c>
       <c r="AB3" t="n">
-        <v>831.3846640709249</v>
+        <v>1117.803088869</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.0384785876997</v>
+        <v>1011.121530913831</v>
       </c>
       <c r="AD3" t="n">
-        <v>607628.8973658048</v>
+        <v>816961.7359018528</v>
       </c>
       <c r="AE3" t="n">
-        <v>831384.664070925</v>
+        <v>1117803.088869001</v>
       </c>
       <c r="AF3" t="n">
         <v>4.593669345331758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.48958333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>752038.4785876997</v>
+        <v>1011121.530913831</v>
       </c>
     </row>
     <row r="4">
@@ -18223,28 +18223,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>571.7235898290779</v>
+        <v>771.6381716024054</v>
       </c>
       <c r="AB4" t="n">
-        <v>782.2574382688022</v>
+        <v>1055.78938865996</v>
       </c>
       <c r="AC4" t="n">
-        <v>707.5998862656371</v>
+        <v>955.0263312159659</v>
       </c>
       <c r="AD4" t="n">
-        <v>571723.5898290779</v>
+        <v>771638.1716024054</v>
       </c>
       <c r="AE4" t="n">
-        <v>782257.4382688021</v>
+        <v>1055789.38865996</v>
       </c>
       <c r="AF4" t="n">
         <v>4.813124118437677e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.51041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>707599.8862656371</v>
+        <v>955026.3312159659</v>
       </c>
     </row>
     <row r="5">
@@ -18329,28 +18329,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>553.1687384990821</v>
+        <v>753.0491548536287</v>
       </c>
       <c r="AB5" t="n">
-        <v>756.8698720968338</v>
+        <v>1030.355075854743</v>
       </c>
       <c r="AC5" t="n">
-        <v>684.6352737774484</v>
+        <v>932.0194335275974</v>
       </c>
       <c r="AD5" t="n">
-        <v>553168.7384990822</v>
+        <v>753049.1548536287</v>
       </c>
       <c r="AE5" t="n">
-        <v>756869.8720968338</v>
+        <v>1030355.075854743</v>
       </c>
       <c r="AF5" t="n">
         <v>4.915296001617364e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.65104166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>684635.2737774485</v>
+        <v>932019.4335275973</v>
       </c>
     </row>
     <row r="6">
@@ -18435,28 +18435,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>546.0412659243761</v>
+        <v>736.368785900793</v>
       </c>
       <c r="AB6" t="n">
-        <v>747.1177496782234</v>
+        <v>1007.532259167532</v>
       </c>
       <c r="AC6" t="n">
-        <v>675.8138802352805</v>
+        <v>911.3747944329887</v>
       </c>
       <c r="AD6" t="n">
-        <v>546041.2659243762</v>
+        <v>736368.785900793</v>
       </c>
       <c r="AE6" t="n">
-        <v>747117.7496782234</v>
+        <v>1007532.259167532</v>
       </c>
       <c r="AF6" t="n">
         <v>4.983257179167816e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.078125</v>
       </c>
       <c r="AH6" t="n">
-        <v>675813.8802352805</v>
+        <v>911374.7944329886</v>
       </c>
     </row>
     <row r="7">
@@ -18541,28 +18541,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>530.8014571396395</v>
+        <v>730.6477080754054</v>
       </c>
       <c r="AB7" t="n">
-        <v>726.265970966034</v>
+        <v>999.7044280906957</v>
       </c>
       <c r="AC7" t="n">
-        <v>656.9521660177272</v>
+        <v>904.2940405676962</v>
       </c>
       <c r="AD7" t="n">
-        <v>530801.4571396395</v>
+        <v>730647.7080754053</v>
       </c>
       <c r="AE7" t="n">
-        <v>726265.9709660341</v>
+        <v>999704.4280906958</v>
       </c>
       <c r="AF7" t="n">
         <v>5.029127138733472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.71354166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>656952.1660177272</v>
+        <v>904294.0405676962</v>
       </c>
     </row>
     <row r="8">
@@ -18647,28 +18647,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>526.9412383230305</v>
+        <v>717.3360781071517</v>
       </c>
       <c r="AB8" t="n">
-        <v>720.9842492803144</v>
+        <v>981.4908687004644</v>
       </c>
       <c r="AC8" t="n">
-        <v>652.1745244367497</v>
+        <v>887.8187577227771</v>
       </c>
       <c r="AD8" t="n">
-        <v>526941.2383230304</v>
+        <v>717336.0781071517</v>
       </c>
       <c r="AE8" t="n">
-        <v>720984.2492803144</v>
+        <v>981490.8687004644</v>
       </c>
       <c r="AF8" t="n">
         <v>5.053979758966369e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.53125</v>
       </c>
       <c r="AH8" t="n">
-        <v>652174.5244367498</v>
+        <v>887818.7577227772</v>
       </c>
     </row>
     <row r="9">
@@ -18753,28 +18753,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>526.6363179269295</v>
+        <v>717.0311577110507</v>
       </c>
       <c r="AB9" t="n">
-        <v>720.5670437422307</v>
+        <v>981.0736631623805</v>
       </c>
       <c r="AC9" t="n">
-        <v>651.797136409669</v>
+        <v>887.4413696956965</v>
       </c>
       <c r="AD9" t="n">
-        <v>526636.3179269294</v>
+        <v>717031.1577110507</v>
       </c>
       <c r="AE9" t="n">
-        <v>720567.0437422306</v>
+        <v>981073.6631623805</v>
       </c>
       <c r="AF9" t="n">
         <v>5.057661628630502e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.50520833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>651797.136409669</v>
+        <v>887441.3696956965</v>
       </c>
     </row>
   </sheetData>
@@ -19050,28 +19050,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>625.8961328773373</v>
+        <v>851.3828830795946</v>
       </c>
       <c r="AB2" t="n">
-        <v>856.3787015913574</v>
+        <v>1164.899620991426</v>
       </c>
       <c r="AC2" t="n">
-        <v>774.647120246534</v>
+        <v>1053.72323611089</v>
       </c>
       <c r="AD2" t="n">
-        <v>625896.1328773373</v>
+        <v>851382.8830795947</v>
       </c>
       <c r="AE2" t="n">
-        <v>856378.7015913574</v>
+        <v>1164899.620991426</v>
       </c>
       <c r="AF2" t="n">
         <v>4.906799882897393e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.30208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>774647.120246534</v>
+        <v>1053723.23611089</v>
       </c>
     </row>
     <row r="3">
@@ -19156,28 +19156,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>545.0630412468942</v>
+        <v>751.8152445195626</v>
       </c>
       <c r="AB3" t="n">
-        <v>745.7792995182656</v>
+        <v>1028.666785299392</v>
       </c>
       <c r="AC3" t="n">
-        <v>674.6031698800624</v>
+        <v>930.4922710533182</v>
       </c>
       <c r="AD3" t="n">
-        <v>545063.0412468942</v>
+        <v>751815.2445195626</v>
       </c>
       <c r="AE3" t="n">
-        <v>745779.2995182656</v>
+        <v>1028666.785299392</v>
       </c>
       <c r="AF3" t="n">
         <v>5.459684885167053e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.61458333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>674603.1698800625</v>
+        <v>930492.2710533182</v>
       </c>
     </row>
     <row r="4">
@@ -19262,28 +19262,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>522.4527410804054</v>
+        <v>710.4040886456372</v>
       </c>
       <c r="AB4" t="n">
-        <v>714.842889334432</v>
+        <v>972.0062149014286</v>
       </c>
       <c r="AC4" t="n">
-        <v>646.6192872646495</v>
+        <v>879.2393059705263</v>
       </c>
       <c r="AD4" t="n">
-        <v>522452.7410804054</v>
+        <v>710404.0886456373</v>
       </c>
       <c r="AE4" t="n">
-        <v>714842.889334432</v>
+        <v>972006.2149014287</v>
       </c>
       <c r="AF4" t="n">
         <v>5.654533456719416e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.15625</v>
       </c>
       <c r="AH4" t="n">
-        <v>646619.2872646495</v>
+        <v>879239.3059705263</v>
       </c>
     </row>
     <row r="5">
@@ -19368,28 +19368,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>504.1292679918666</v>
+        <v>692.0464501383175</v>
       </c>
       <c r="AB5" t="n">
-        <v>689.7719050801128</v>
+        <v>946.8884840138617</v>
       </c>
       <c r="AC5" t="n">
-        <v>623.941042560215</v>
+        <v>856.5187760659121</v>
       </c>
       <c r="AD5" t="n">
-        <v>504129.2679918666</v>
+        <v>692046.4501383175</v>
       </c>
       <c r="AE5" t="n">
-        <v>689771.9050801127</v>
+        <v>946888.4840138616</v>
       </c>
       <c r="AF5" t="n">
         <v>5.753266036395904e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.47916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>623941.042560215</v>
+        <v>856518.7760659121</v>
       </c>
     </row>
     <row r="6">
@@ -19474,28 +19474,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>503.6346729386804</v>
+        <v>691.5518550851314</v>
       </c>
       <c r="AB6" t="n">
-        <v>689.0951783083495</v>
+        <v>946.2117572420984</v>
       </c>
       <c r="AC6" t="n">
-        <v>623.3289016417569</v>
+        <v>855.906635147454</v>
       </c>
       <c r="AD6" t="n">
-        <v>503634.6729386804</v>
+        <v>691551.8550851314</v>
       </c>
       <c r="AE6" t="n">
-        <v>689095.1783083496</v>
+        <v>946211.7572420985</v>
       </c>
       <c r="AF6" t="n">
         <v>5.767308390925863e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.375</v>
       </c>
       <c r="AH6" t="n">
-        <v>623328.901641757</v>
+        <v>855906.635147454</v>
       </c>
     </row>
   </sheetData>
@@ -36128,28 +36128,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>557.2375022706196</v>
+        <v>771.2064220390611</v>
       </c>
       <c r="AB2" t="n">
-        <v>762.4369341902404</v>
+        <v>1055.198649859945</v>
       </c>
       <c r="AC2" t="n">
-        <v>689.6710232780811</v>
+        <v>954.4919716979183</v>
       </c>
       <c r="AD2" t="n">
-        <v>557237.5022706196</v>
+        <v>771206.4220390611</v>
       </c>
       <c r="AE2" t="n">
-        <v>762436.9341902405</v>
+        <v>1055198.649859945</v>
       </c>
       <c r="AF2" t="n">
         <v>5.800384040080444e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>689671.0232780811</v>
+        <v>954491.9716979183</v>
       </c>
     </row>
     <row r="3">
@@ -36234,28 +36234,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>503.4937008502206</v>
+        <v>698.7833659756529</v>
       </c>
       <c r="AB3" t="n">
-        <v>688.9022940776694</v>
+        <v>956.1062294742545</v>
       </c>
       <c r="AC3" t="n">
-        <v>623.1544260113382</v>
+        <v>864.8567928367521</v>
       </c>
       <c r="AD3" t="n">
-        <v>503493.7008502206</v>
+        <v>698783.3659756529</v>
       </c>
       <c r="AE3" t="n">
-        <v>688902.2940776694</v>
+        <v>956106.2294742545</v>
       </c>
       <c r="AF3" t="n">
         <v>6.323835959464909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.33854166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>623154.4260113381</v>
+        <v>864856.7928367521</v>
       </c>
     </row>
     <row r="4">
@@ -36340,28 +36340,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>484.9564322005926</v>
+        <v>670.9742953271535</v>
       </c>
       <c r="AB4" t="n">
-        <v>663.5387853046736</v>
+        <v>918.0566321633673</v>
       </c>
       <c r="AC4" t="n">
-        <v>600.2115749177289</v>
+        <v>830.4385956902706</v>
       </c>
       <c r="AD4" t="n">
-        <v>484956.4322005927</v>
+        <v>670974.2953271535</v>
       </c>
       <c r="AE4" t="n">
-        <v>663538.7853046736</v>
+        <v>918056.6321633674</v>
       </c>
       <c r="AF4" t="n">
         <v>6.459890359918692e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.47916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>600211.5749177289</v>
+        <v>830438.5956902707</v>
       </c>
     </row>
     <row r="5">
@@ -36446,28 +36446,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>485.8879822479469</v>
+        <v>672.007330600993</v>
       </c>
       <c r="AB5" t="n">
-        <v>664.8133731765512</v>
+        <v>919.4700765993341</v>
       </c>
       <c r="AC5" t="n">
-        <v>601.3645179120099</v>
+        <v>831.7171429730506</v>
       </c>
       <c r="AD5" t="n">
-        <v>485887.9822479468</v>
+        <v>672007.330600993</v>
       </c>
       <c r="AE5" t="n">
-        <v>664813.3731765512</v>
+        <v>919470.0765993341</v>
       </c>
       <c r="AF5" t="n">
         <v>6.458127235938731e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.50520833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>601364.5179120098</v>
+        <v>831717.1429730506</v>
       </c>
     </row>
   </sheetData>
@@ -36743,28 +36743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>461.0530354067577</v>
+        <v>652.4908944839449</v>
       </c>
       <c r="AB2" t="n">
-        <v>630.8331032679081</v>
+        <v>892.7668276995942</v>
       </c>
       <c r="AC2" t="n">
-        <v>570.6272772718394</v>
+        <v>807.5624146700565</v>
       </c>
       <c r="AD2" t="n">
-        <v>461053.0354067577</v>
+        <v>652490.8944839449</v>
       </c>
       <c r="AE2" t="n">
-        <v>630833.1032679081</v>
+        <v>892766.8276995942</v>
       </c>
       <c r="AF2" t="n">
         <v>8.2907884468188e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>570627.2772718393</v>
+        <v>807562.4146700564</v>
       </c>
     </row>
     <row r="3">
@@ -36849,28 +36849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.0402335965437</v>
+        <v>652.4780926737308</v>
       </c>
       <c r="AB3" t="n">
-        <v>630.8155872663972</v>
+        <v>892.7493116980834</v>
       </c>
       <c r="AC3" t="n">
-        <v>570.6114329729288</v>
+        <v>807.546570371146</v>
       </c>
       <c r="AD3" t="n">
-        <v>461040.2335965437</v>
+        <v>652478.0926737308</v>
       </c>
       <c r="AE3" t="n">
-        <v>630815.5872663972</v>
+        <v>892749.3116980834</v>
       </c>
       <c r="AF3" t="n">
         <v>8.328098743749651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.52083333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>570611.4329729289</v>
+        <v>807546.570371146</v>
       </c>
     </row>
   </sheetData>
@@ -37146,28 +37146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.8044234363734</v>
+        <v>1099.040958173189</v>
       </c>
       <c r="AB2" t="n">
-        <v>1135.375020533119</v>
+        <v>1503.756325237643</v>
       </c>
       <c r="AC2" t="n">
-        <v>1027.016422082286</v>
+        <v>1360.23993209222</v>
       </c>
       <c r="AD2" t="n">
-        <v>829804.4234363735</v>
+        <v>1099040.958173189</v>
       </c>
       <c r="AE2" t="n">
-        <v>1135375.020533119</v>
+        <v>1503756.325237643</v>
       </c>
       <c r="AF2" t="n">
         <v>3.345379341854595e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1027016.422082286</v>
+        <v>1360239.93209222</v>
       </c>
     </row>
     <row r="3">
@@ -37252,28 +37252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>669.8612475333342</v>
+        <v>900.6833613089851</v>
       </c>
       <c r="AB3" t="n">
-        <v>916.5337110676608</v>
+        <v>1232.354710288475</v>
       </c>
       <c r="AC3" t="n">
-        <v>829.061020046505</v>
+        <v>1114.740506359241</v>
       </c>
       <c r="AD3" t="n">
-        <v>669861.2475333342</v>
+        <v>900683.3613089852</v>
       </c>
       <c r="AE3" t="n">
-        <v>916533.7110676607</v>
+        <v>1232354.710288475</v>
       </c>
       <c r="AF3" t="n">
         <v>3.979601854124892e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>829061.0200465049</v>
+        <v>1114740.506359241</v>
       </c>
     </row>
     <row r="4">
@@ -37358,28 +37358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>618.3804188271623</v>
+        <v>839.5479319918154</v>
       </c>
       <c r="AB4" t="n">
-        <v>846.0953700580053</v>
+        <v>1148.706518791934</v>
       </c>
       <c r="AC4" t="n">
-        <v>765.3452154419787</v>
+        <v>1039.075580858156</v>
       </c>
       <c r="AD4" t="n">
-        <v>618380.4188271624</v>
+        <v>839547.9319918155</v>
       </c>
       <c r="AE4" t="n">
-        <v>846095.3700580053</v>
+        <v>1148706.518791934</v>
       </c>
       <c r="AF4" t="n">
         <v>4.219775440193672e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.94270833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>765345.2154419787</v>
+        <v>1039075.580858156</v>
       </c>
     </row>
     <row r="5">
@@ -37464,28 +37464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>598.2255928528458</v>
+        <v>809.8068362440625</v>
       </c>
       <c r="AB5" t="n">
-        <v>818.5186479917777</v>
+        <v>1108.013439505316</v>
       </c>
       <c r="AC5" t="n">
-        <v>740.4003770255794</v>
+        <v>1002.266191945558</v>
       </c>
       <c r="AD5" t="n">
-        <v>598225.5928528458</v>
+        <v>809806.8362440625</v>
       </c>
       <c r="AE5" t="n">
-        <v>818518.6479917777</v>
+        <v>1108013.439505316</v>
       </c>
       <c r="AF5" t="n">
         <v>4.336695644365087e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>42</v>
+        <v>41.796875</v>
       </c>
       <c r="AH5" t="n">
-        <v>740400.3770255793</v>
+        <v>1002266.191945558</v>
       </c>
     </row>
     <row r="6">
@@ -37570,28 +37570,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>590.0097089326566</v>
+        <v>791.9373627427325</v>
       </c>
       <c r="AB6" t="n">
-        <v>807.2773131529575</v>
+        <v>1083.563637515265</v>
       </c>
       <c r="AC6" t="n">
-        <v>730.2318994064636</v>
+        <v>980.1498447419237</v>
       </c>
       <c r="AD6" t="n">
-        <v>590009.7089326567</v>
+        <v>791937.3627427325</v>
       </c>
       <c r="AE6" t="n">
-        <v>807277.3131529575</v>
+        <v>1083563.637515265</v>
       </c>
       <c r="AF6" t="n">
         <v>4.415686377540417e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>42</v>
+        <v>41.04166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>730231.8994064636</v>
+        <v>980149.8447419237</v>
       </c>
     </row>
     <row r="7">
@@ -37676,28 +37676,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>575.2320572009335</v>
+        <v>777.2270308187138</v>
       </c>
       <c r="AB7" t="n">
-        <v>787.0578781096312</v>
+        <v>1063.43631240278</v>
       </c>
       <c r="AC7" t="n">
-        <v>711.942178865517</v>
+        <v>961.9434432892963</v>
       </c>
       <c r="AD7" t="n">
-        <v>575232.0572009335</v>
+        <v>777227.0308187138</v>
       </c>
       <c r="AE7" t="n">
-        <v>787057.8781096312</v>
+        <v>1063436.31240278</v>
       </c>
       <c r="AF7" t="n">
         <v>4.456260472202283e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>41</v>
+        <v>40.67708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>711942.178865517</v>
+        <v>961943.4432892962</v>
       </c>
     </row>
     <row r="8">
@@ -37782,28 +37782,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>568.8009693014003</v>
+        <v>761.1423533380397</v>
       </c>
       <c r="AB8" t="n">
-        <v>778.2585799259159</v>
+        <v>1041.428547067833</v>
       </c>
       <c r="AC8" t="n">
-        <v>703.982673350563</v>
+        <v>942.0360681898241</v>
       </c>
       <c r="AD8" t="n">
-        <v>568800.9693014004</v>
+        <v>761142.3533380397</v>
       </c>
       <c r="AE8" t="n">
-        <v>778258.5799259159</v>
+        <v>1041428.547067833</v>
       </c>
       <c r="AF8" t="n">
         <v>4.50351572138823e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>41</v>
+        <v>40.234375</v>
       </c>
       <c r="AH8" t="n">
-        <v>703982.673350563</v>
+        <v>942036.068189824</v>
       </c>
     </row>
     <row r="9">
@@ -37888,19 +37888,19 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>554.1096975732868</v>
+        <v>756.0705057722863</v>
       </c>
       <c r="AB9" t="n">
-        <v>758.1573338143453</v>
+        <v>1034.489021474246</v>
       </c>
       <c r="AC9" t="n">
-        <v>685.7998619556046</v>
+        <v>935.7588411792037</v>
       </c>
       <c r="AD9" t="n">
-        <v>554109.6975732868</v>
+        <v>756070.5057722863</v>
       </c>
       <c r="AE9" t="n">
-        <v>758157.3338143453</v>
+        <v>1034489.021474246</v>
       </c>
       <c r="AF9" t="n">
         <v>4.531353865238566e-06</v>
@@ -37909,7 +37909,7 @@
         <v>40</v>
       </c>
       <c r="AH9" t="n">
-        <v>685799.8619556045</v>
+        <v>935758.8411792037</v>
       </c>
     </row>
     <row r="10">
@@ -37994,28 +37994,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>550.4563576603686</v>
+        <v>752.417165859368</v>
       </c>
       <c r="AB10" t="n">
-        <v>753.1586729715086</v>
+        <v>1029.490360631409</v>
       </c>
       <c r="AC10" t="n">
-        <v>681.2782662879436</v>
+        <v>931.2372455115428</v>
       </c>
       <c r="AD10" t="n">
-        <v>550456.3576603686</v>
+        <v>752417.1658593679</v>
       </c>
       <c r="AE10" t="n">
-        <v>753158.6729715086</v>
+        <v>1029490.360631409</v>
       </c>
       <c r="AF10" t="n">
         <v>4.544089816050096e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.89583333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>681278.2662879436</v>
+        <v>931237.2455115428</v>
       </c>
     </row>
     <row r="11">
@@ -38100,28 +38100,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>548.9613243502395</v>
+        <v>750.9221325492389</v>
       </c>
       <c r="AB11" t="n">
-        <v>751.1131024403753</v>
+        <v>1027.444790100276</v>
       </c>
       <c r="AC11" t="n">
-        <v>679.4279221373254</v>
+        <v>929.3869013609246</v>
       </c>
       <c r="AD11" t="n">
-        <v>548961.3243502395</v>
+        <v>750922.1325492389</v>
       </c>
       <c r="AE11" t="n">
-        <v>751113.1024403754</v>
+        <v>1027444.790100276</v>
       </c>
       <c r="AF11" t="n">
         <v>4.558426460133019e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>40</v>
+        <v>39.765625</v>
       </c>
       <c r="AH11" t="n">
-        <v>679427.9221373254</v>
+        <v>929386.9013609246</v>
       </c>
     </row>
     <row r="12">
@@ -38206,28 +38206,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>548.7844179675518</v>
+        <v>750.7452261665512</v>
       </c>
       <c r="AB12" t="n">
-        <v>750.8710513230234</v>
+        <v>1027.202738982924</v>
       </c>
       <c r="AC12" t="n">
-        <v>679.2089720388925</v>
+        <v>929.1679512624919</v>
       </c>
       <c r="AD12" t="n">
-        <v>548784.4179675519</v>
+        <v>750745.2261665512</v>
       </c>
       <c r="AE12" t="n">
-        <v>750871.0513230234</v>
+        <v>1027202.738982924</v>
       </c>
       <c r="AF12" t="n">
         <v>4.558496055492645e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>40</v>
+        <v>39.765625</v>
       </c>
       <c r="AH12" t="n">
-        <v>679208.9720388926</v>
+        <v>929167.9512624919</v>
       </c>
     </row>
   </sheetData>
@@ -38503,28 +38503,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.1715538365141</v>
+        <v>1288.862095773006</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.691670894403</v>
+        <v>1763.477980019273</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.783553531908</v>
+        <v>1595.174116663123</v>
       </c>
       <c r="AD2" t="n">
-        <v>987171.5538365141</v>
+        <v>1288862.095773006</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350691.670894403</v>
+        <v>1763477.980019273</v>
       </c>
       <c r="AF2" t="n">
         <v>2.71447996834396e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.33854166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221783.553531907</v>
+        <v>1595174.116663123</v>
       </c>
     </row>
     <row r="3">
@@ -38609,28 +38609,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.6032883238844</v>
+        <v>999.8758575026163</v>
       </c>
       <c r="AB3" t="n">
-        <v>1035.21799806605</v>
+        <v>1368.074259644686</v>
       </c>
       <c r="AC3" t="n">
-        <v>936.4182452682107</v>
+        <v>1237.507172408479</v>
       </c>
       <c r="AD3" t="n">
-        <v>756603.2883238844</v>
+        <v>999875.8575026164</v>
       </c>
       <c r="AE3" t="n">
-        <v>1035217.99806605</v>
+        <v>1368074.259644686</v>
       </c>
       <c r="AF3" t="n">
         <v>3.381701848666662e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>936418.2452682108</v>
+        <v>1237507.172408479</v>
       </c>
     </row>
     <row r="4">
@@ -38715,28 +38715,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>697.645693133086</v>
+        <v>921.4797701446789</v>
       </c>
       <c r="AB4" t="n">
-        <v>954.5496153004707</v>
+        <v>1260.809274330277</v>
       </c>
       <c r="AC4" t="n">
-        <v>863.4487397349924</v>
+        <v>1140.479406745125</v>
       </c>
       <c r="AD4" t="n">
-        <v>697645.693133086</v>
+        <v>921479.7701446789</v>
       </c>
       <c r="AE4" t="n">
-        <v>954549.6153004707</v>
+        <v>1260809.274330277</v>
       </c>
       <c r="AF4" t="n">
         <v>3.631359800116344e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>45.10416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>863448.7397349924</v>
+        <v>1140479.406745125</v>
       </c>
     </row>
     <row r="5">
@@ -38821,28 +38821,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>662.960947090321</v>
+        <v>877.058695308954</v>
       </c>
       <c r="AB5" t="n">
-        <v>907.0924155817593</v>
+        <v>1200.030400020527</v>
       </c>
       <c r="AC5" t="n">
-        <v>820.5207885508366</v>
+        <v>1085.501182895811</v>
       </c>
       <c r="AD5" t="n">
-        <v>662960.947090321</v>
+        <v>877058.695308954</v>
       </c>
       <c r="AE5" t="n">
-        <v>907092.4155817593</v>
+        <v>1200030.400020527</v>
       </c>
       <c r="AF5" t="n">
         <v>3.767634052204873e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>44</v>
+        <v>43.46354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>820520.7885508366</v>
+        <v>1085501.182895811</v>
       </c>
     </row>
     <row r="6">
@@ -38927,28 +38927,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>642.9329853005378</v>
+        <v>856.99656810039</v>
       </c>
       <c r="AB6" t="n">
-        <v>879.6892746896631</v>
+        <v>1172.580512495183</v>
       </c>
       <c r="AC6" t="n">
-        <v>795.7329649649325</v>
+        <v>1060.671074109727</v>
       </c>
       <c r="AD6" t="n">
-        <v>642932.9853005378</v>
+        <v>856996.56810039</v>
       </c>
       <c r="AE6" t="n">
-        <v>879689.2746896631</v>
+        <v>1172580.512495183</v>
       </c>
       <c r="AF6" t="n">
         <v>3.85812719883865e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>43</v>
+        <v>42.44791666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>795732.9649649325</v>
+        <v>1060671.074109727</v>
       </c>
     </row>
     <row r="7">
@@ -39033,28 +39033,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>626.8203426333944</v>
+        <v>840.9512452409512</v>
       </c>
       <c r="AB7" t="n">
-        <v>857.6432461528517</v>
+        <v>1150.626593889213</v>
       </c>
       <c r="AC7" t="n">
-        <v>775.7909784498788</v>
+        <v>1040.812406682993</v>
       </c>
       <c r="AD7" t="n">
-        <v>626820.3426333944</v>
+        <v>840951.2452409512</v>
       </c>
       <c r="AE7" t="n">
-        <v>857643.2461528517</v>
+        <v>1150626.593889213</v>
       </c>
       <c r="AF7" t="n">
         <v>3.911517526491239e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>42</v>
+        <v>41.87499999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>775790.9784498789</v>
+        <v>1040812.406682993</v>
       </c>
     </row>
     <row r="8">
@@ -39139,28 +39139,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>621.7752111055198</v>
+        <v>826.136630531193</v>
       </c>
       <c r="AB8" t="n">
-        <v>850.7402746209193</v>
+        <v>1130.356584468647</v>
       </c>
       <c r="AC8" t="n">
-        <v>769.5468168325726</v>
+        <v>1022.476938512389</v>
       </c>
       <c r="AD8" t="n">
-        <v>621775.2111055198</v>
+        <v>826136.630531193</v>
       </c>
       <c r="AE8" t="n">
-        <v>850740.2746209193</v>
+        <v>1130356.584468648</v>
       </c>
       <c r="AF8" t="n">
         <v>3.948117256401495e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>41.484375</v>
       </c>
       <c r="AH8" t="n">
-        <v>769546.8168325727</v>
+        <v>1022476.938512389</v>
       </c>
     </row>
     <row r="9">
@@ -39245,28 +39245,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>617.0005817905377</v>
+        <v>821.3620012162107</v>
       </c>
       <c r="AB9" t="n">
-        <v>844.2074161503816</v>
+        <v>1123.82372599811</v>
       </c>
       <c r="AC9" t="n">
-        <v>763.6374452055387</v>
+        <v>1016.567566885356</v>
       </c>
       <c r="AD9" t="n">
-        <v>617000.5817905377</v>
+        <v>821362.0012162108</v>
       </c>
       <c r="AE9" t="n">
-        <v>844207.4161503817</v>
+        <v>1123823.72599811</v>
       </c>
       <c r="AF9" t="n">
         <v>3.979371664933105e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>42</v>
+        <v>41.14583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>763637.4452055388</v>
+        <v>1016567.566885356</v>
       </c>
     </row>
     <row r="10">
@@ -39351,28 +39351,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>602.6796007024584</v>
+        <v>807.1083399358361</v>
       </c>
       <c r="AB10" t="n">
-        <v>824.6128180285759</v>
+        <v>1104.321237807146</v>
       </c>
       <c r="AC10" t="n">
-        <v>745.9129280272871</v>
+        <v>998.9263687954229</v>
       </c>
       <c r="AD10" t="n">
-        <v>602679.6007024584</v>
+        <v>807108.339935836</v>
       </c>
       <c r="AE10" t="n">
-        <v>824612.818028576</v>
+        <v>1104321.237807146</v>
       </c>
       <c r="AF10" t="n">
         <v>4.006035385692467e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>41</v>
+        <v>40.88541666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>745912.9280272871</v>
+        <v>998926.368795423</v>
       </c>
     </row>
     <row r="11">
@@ -39457,28 +39457,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>599.9184018001084</v>
+        <v>804.347141033486</v>
       </c>
       <c r="AB11" t="n">
-        <v>820.8348238748825</v>
+        <v>1100.543243653452</v>
       </c>
       <c r="AC11" t="n">
-        <v>742.4955003331739</v>
+        <v>995.5089411013098</v>
       </c>
       <c r="AD11" t="n">
-        <v>599918.4018001084</v>
+        <v>804347.141033486</v>
       </c>
       <c r="AE11" t="n">
-        <v>820834.8238748825</v>
+        <v>1100543.243653452</v>
       </c>
       <c r="AF11" t="n">
         <v>4.021568260757471e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>41</v>
+        <v>40.72916666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>742495.5003331739</v>
+        <v>995508.9411013098</v>
       </c>
     </row>
     <row r="12">
@@ -39563,28 +39563,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>596.0430259781815</v>
+        <v>800.4717652115592</v>
       </c>
       <c r="AB12" t="n">
-        <v>815.5323637058074</v>
+        <v>1095.240783484378</v>
       </c>
       <c r="AC12" t="n">
-        <v>737.6990995205857</v>
+        <v>990.7125402887216</v>
       </c>
       <c r="AD12" t="n">
-        <v>596043.0259781815</v>
+        <v>800471.7652115591</v>
       </c>
       <c r="AE12" t="n">
-        <v>815532.3637058074</v>
+        <v>1095240.783484377</v>
       </c>
       <c r="AF12" t="n">
         <v>4.036912477420878e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>41</v>
+        <v>40.57291666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>737699.0995205857</v>
+        <v>990712.5402887216</v>
       </c>
     </row>
     <row r="13">
@@ -39669,28 +39669,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>591.649187665019</v>
+        <v>795.9764416719113</v>
       </c>
       <c r="AB13" t="n">
-        <v>809.5205202832726</v>
+        <v>1089.090083497753</v>
       </c>
       <c r="AC13" t="n">
-        <v>732.2610179966225</v>
+        <v>985.1488544762593</v>
       </c>
       <c r="AD13" t="n">
-        <v>591649.187665019</v>
+        <v>795976.4416719113</v>
       </c>
       <c r="AE13" t="n">
-        <v>809520.5202832726</v>
+        <v>1089090.083497753</v>
       </c>
       <c r="AF13" t="n">
         <v>4.051502060477887e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>41</v>
+        <v>40.41666666666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>732261.0179966225</v>
+        <v>985148.8544762593</v>
       </c>
     </row>
     <row r="14">
@@ -39775,28 +39775,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>588.057124088554</v>
+        <v>792.3843780954464</v>
       </c>
       <c r="AB14" t="n">
-        <v>804.6057004272926</v>
+        <v>1084.175263641773</v>
       </c>
       <c r="AC14" t="n">
-        <v>727.8152616497043</v>
+        <v>980.7030981293411</v>
       </c>
       <c r="AD14" t="n">
-        <v>588057.1240885541</v>
+        <v>792384.3780954464</v>
       </c>
       <c r="AE14" t="n">
-        <v>804605.7004272926</v>
+        <v>1084175.263641773</v>
       </c>
       <c r="AF14" t="n">
         <v>4.06357619818024e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>41</v>
+        <v>40.3125</v>
       </c>
       <c r="AH14" t="n">
-        <v>727815.2616497043</v>
+        <v>980703.0981293411</v>
       </c>
     </row>
     <row r="15">
@@ -39881,28 +39881,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>586.2406276168256</v>
+        <v>780.8998836683198</v>
       </c>
       <c r="AB15" t="n">
-        <v>802.1202898165053</v>
+        <v>1068.461671706443</v>
       </c>
       <c r="AC15" t="n">
-        <v>725.5670551393148</v>
+        <v>966.4891893541536</v>
       </c>
       <c r="AD15" t="n">
-        <v>586240.6276168256</v>
+        <v>780899.8836683198</v>
       </c>
       <c r="AE15" t="n">
-        <v>802120.2898165053</v>
+        <v>1068461.671706443</v>
       </c>
       <c r="AF15" t="n">
         <v>4.079612162316176e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>41</v>
+        <v>40.13020833333334</v>
       </c>
       <c r="AH15" t="n">
-        <v>725567.0551393147</v>
+        <v>966489.1893541536</v>
       </c>
     </row>
     <row r="16">
@@ -39987,28 +39987,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>585.6033045977588</v>
+        <v>780.2625606492528</v>
       </c>
       <c r="AB16" t="n">
-        <v>801.2482763451108</v>
+        <v>1067.589658235048</v>
       </c>
       <c r="AC16" t="n">
-        <v>724.7782654097516</v>
+        <v>965.7003996245903</v>
       </c>
       <c r="AD16" t="n">
-        <v>585603.3045977588</v>
+        <v>780262.5606492528</v>
       </c>
       <c r="AE16" t="n">
-        <v>801248.2763451107</v>
+        <v>1067589.658235048</v>
       </c>
       <c r="AF16" t="n">
         <v>4.077285375363119e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>41</v>
+        <v>40.15625</v>
       </c>
       <c r="AH16" t="n">
-        <v>724778.2654097516</v>
+        <v>965700.3996245903</v>
       </c>
     </row>
     <row r="17">
@@ -40093,28 +40093,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>586.3111271524618</v>
+        <v>780.970383203956</v>
       </c>
       <c r="AB17" t="n">
-        <v>802.2167503913828</v>
+        <v>1068.55813228132</v>
       </c>
       <c r="AC17" t="n">
-        <v>725.6543096523092</v>
+        <v>966.576443867148</v>
       </c>
       <c r="AD17" t="n">
-        <v>586311.1271524618</v>
+        <v>780970.3832039559</v>
       </c>
       <c r="AE17" t="n">
-        <v>802216.7503913828</v>
+        <v>1068558.13228132</v>
       </c>
       <c r="AF17" t="n">
         <v>4.077411147630851e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>41</v>
+        <v>40.15625</v>
       </c>
       <c r="AH17" t="n">
-        <v>725654.3096523092</v>
+        <v>966576.443867148</v>
       </c>
     </row>
   </sheetData>
@@ -40390,28 +40390,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.0641802321858</v>
+        <v>651.6199169369614</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.21659622662</v>
+        <v>891.5751177949942</v>
       </c>
       <c r="AC2" t="n">
-        <v>571.8787316043164</v>
+        <v>806.4844398861761</v>
       </c>
       <c r="AD2" t="n">
-        <v>462064.1802321858</v>
+        <v>651619.9169369615</v>
       </c>
       <c r="AE2" t="n">
-        <v>632216.59622662</v>
+        <v>891575.1177949941</v>
       </c>
       <c r="AF2" t="n">
         <v>9.451333503040098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.03125</v>
       </c>
       <c r="AH2" t="n">
-        <v>571878.7316043164</v>
+        <v>806484.4398861761</v>
       </c>
     </row>
   </sheetData>
@@ -40687,28 +40687,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>655.7134195884206</v>
+        <v>891.7227852637224</v>
       </c>
       <c r="AB2" t="n">
-        <v>897.176028715312</v>
+        <v>1220.094454830631</v>
       </c>
       <c r="AC2" t="n">
-        <v>811.5508077291868</v>
+        <v>1103.650352474917</v>
       </c>
       <c r="AD2" t="n">
-        <v>655713.4195884207</v>
+        <v>891722.7852637224</v>
       </c>
       <c r="AE2" t="n">
-        <v>897176.028715312</v>
+        <v>1220094.454830631</v>
       </c>
       <c r="AF2" t="n">
         <v>4.557281397242363e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.52604166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>811550.8077291867</v>
+        <v>1103650.352474917</v>
       </c>
     </row>
     <row r="3">
@@ -40793,28 +40793,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>569.043161001062</v>
+        <v>767.2811062641628</v>
       </c>
       <c r="AB3" t="n">
-        <v>778.5899572941368</v>
+        <v>1049.82785964402</v>
       </c>
       <c r="AC3" t="n">
-        <v>704.2824245278518</v>
+        <v>949.6337621622488</v>
       </c>
       <c r="AD3" t="n">
-        <v>569043.161001062</v>
+        <v>767281.1062641628</v>
       </c>
       <c r="AE3" t="n">
-        <v>778589.9572941368</v>
+        <v>1049827.85964402</v>
       </c>
       <c r="AF3" t="n">
         <v>5.132670091165359e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>704282.4245278519</v>
+        <v>949633.7621622488</v>
       </c>
     </row>
     <row r="4">
@@ -40899,28 +40899,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>536.5722687334979</v>
+        <v>734.8433683855224</v>
       </c>
       <c r="AB4" t="n">
-        <v>734.1618499789906</v>
+        <v>1005.445115626467</v>
       </c>
       <c r="AC4" t="n">
-        <v>664.094473419623</v>
+        <v>909.4868449421591</v>
       </c>
       <c r="AD4" t="n">
-        <v>536572.2687334979</v>
+        <v>734843.3683855224</v>
       </c>
       <c r="AE4" t="n">
-        <v>734161.8499789906</v>
+        <v>1005445.115626467</v>
       </c>
       <c r="AF4" t="n">
         <v>5.333864836843261e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.59895833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>664094.473419623</v>
+        <v>909486.8449421591</v>
       </c>
     </row>
     <row r="5">
@@ -41005,28 +41005,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>517.2676159889656</v>
+        <v>715.5045502222092</v>
       </c>
       <c r="AB5" t="n">
-        <v>707.7483724327496</v>
+        <v>978.9848914469785</v>
       </c>
       <c r="AC5" t="n">
-        <v>640.2018610988466</v>
+        <v>885.551947421203</v>
       </c>
       <c r="AD5" t="n">
-        <v>517267.6159889656</v>
+        <v>715504.5502222092</v>
       </c>
       <c r="AE5" t="n">
-        <v>707748.3724327496</v>
+        <v>978984.8914469786</v>
       </c>
       <c r="AF5" t="n">
         <v>5.432507651383976e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.86979166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>640201.8610988467</v>
+        <v>885551.9474212029</v>
       </c>
     </row>
     <row r="6">
@@ -41111,28 +41111,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>512.1331720542688</v>
+        <v>700.8938440380741</v>
       </c>
       <c r="AB6" t="n">
-        <v>700.7231997256176</v>
+        <v>958.9938786669803</v>
       </c>
       <c r="AC6" t="n">
-        <v>633.8471610149916</v>
+        <v>867.4688488433651</v>
       </c>
       <c r="AD6" t="n">
-        <v>512133.1720542688</v>
+        <v>700893.8440380741</v>
       </c>
       <c r="AE6" t="n">
-        <v>700723.1997256177</v>
+        <v>958993.8786669803</v>
       </c>
       <c r="AF6" t="n">
         <v>5.489065082992481e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>40</v>
+        <v>39.453125</v>
       </c>
       <c r="AH6" t="n">
-        <v>633847.1610149916</v>
+        <v>867468.8488433651</v>
       </c>
     </row>
     <row r="7">
@@ -41217,28 +41217,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>510.8203519179244</v>
+        <v>699.5810239017297</v>
       </c>
       <c r="AB7" t="n">
-        <v>698.9269412975345</v>
+        <v>957.197620238897</v>
       </c>
       <c r="AC7" t="n">
-        <v>632.2223349702201</v>
+        <v>865.8440227985935</v>
       </c>
       <c r="AD7" t="n">
-        <v>510820.3519179244</v>
+        <v>699581.0239017297</v>
       </c>
       <c r="AE7" t="n">
-        <v>698926.9412975345</v>
+        <v>957197.620238897</v>
       </c>
       <c r="AF7" t="n">
         <v>5.498297251975634e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>40</v>
+        <v>39.40104166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>632222.3349702201</v>
+        <v>865844.0227985935</v>
       </c>
     </row>
   </sheetData>
@@ -41514,28 +41514,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>756.243280602013</v>
+        <v>1004.570442052705</v>
       </c>
       <c r="AB2" t="n">
-        <v>1034.725419618566</v>
+        <v>1374.49759733657</v>
       </c>
       <c r="AC2" t="n">
-        <v>935.9726778164164</v>
+        <v>1243.317475766261</v>
       </c>
       <c r="AD2" t="n">
-        <v>756243.280602013</v>
+        <v>1004570.442052705</v>
       </c>
       <c r="AE2" t="n">
-        <v>1034725.419618566</v>
+        <v>1374497.59733657</v>
       </c>
       <c r="AF2" t="n">
         <v>3.75344150594601e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.38020833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>935972.6778164164</v>
+        <v>1243317.475766261</v>
       </c>
     </row>
     <row r="3">
@@ -41620,28 +41620,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>631.6526923596954</v>
+        <v>841.7942274326791</v>
       </c>
       <c r="AB3" t="n">
-        <v>864.2550802366005</v>
+        <v>1151.779999313684</v>
       </c>
       <c r="AC3" t="n">
-        <v>781.7717883684419</v>
+        <v>1041.855732712567</v>
       </c>
       <c r="AD3" t="n">
-        <v>631652.6923596953</v>
+        <v>841794.2274326792</v>
       </c>
       <c r="AE3" t="n">
-        <v>864255.0802366005</v>
+        <v>1151779.999313684</v>
       </c>
       <c r="AF3" t="n">
         <v>4.365770670152746e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.16666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>781771.7883684419</v>
+        <v>1041855.732712568</v>
       </c>
     </row>
     <row r="4">
@@ -41726,28 +41726,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>594.7780243783817</v>
+        <v>795.3646115022433</v>
       </c>
       <c r="AB4" t="n">
-        <v>813.8015327090294</v>
+        <v>1088.252950467571</v>
       </c>
       <c r="AC4" t="n">
-        <v>736.1334566049036</v>
+        <v>984.3916162475546</v>
       </c>
       <c r="AD4" t="n">
-        <v>594778.0243783817</v>
+        <v>795364.6115022433</v>
       </c>
       <c r="AE4" t="n">
-        <v>813801.5327090294</v>
+        <v>1088252.950467571</v>
       </c>
       <c r="AF4" t="n">
         <v>4.585803319748563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.05729166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>736133.4566049036</v>
+        <v>984391.6162475545</v>
       </c>
     </row>
     <row r="5">
@@ -41832,28 +41832,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>564.7876732066818</v>
+        <v>774.8940318310277</v>
       </c>
       <c r="AB5" t="n">
-        <v>772.7674111549943</v>
+        <v>1060.244200263176</v>
       </c>
       <c r="AC5" t="n">
-        <v>699.0155740202345</v>
+        <v>959.0559818521392</v>
       </c>
       <c r="AD5" t="n">
-        <v>564787.6732066819</v>
+        <v>774894.0318310277</v>
       </c>
       <c r="AE5" t="n">
-        <v>772767.4111549943</v>
+        <v>1060244.200263177</v>
       </c>
       <c r="AF5" t="n">
         <v>4.707928475986698e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>41</v>
+        <v>40.96354166666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>699015.5740202344</v>
+        <v>959055.9818521392</v>
       </c>
     </row>
     <row r="6">
@@ -41938,28 +41938,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>557.5936906014501</v>
+        <v>758.1119468877502</v>
       </c>
       <c r="AB6" t="n">
-        <v>762.9242867784031</v>
+        <v>1037.282211270449</v>
       </c>
       <c r="AC6" t="n">
-        <v>690.1118636192333</v>
+        <v>938.2854528615242</v>
       </c>
       <c r="AD6" t="n">
-        <v>557593.6906014502</v>
+        <v>758111.9468877502</v>
       </c>
       <c r="AE6" t="n">
-        <v>762924.2867784031</v>
+        <v>1037282.211270449</v>
       </c>
       <c r="AF6" t="n">
         <v>4.772879210990244e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>41</v>
+        <v>40.41666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>690111.8636192332</v>
+        <v>938285.4528615242</v>
       </c>
     </row>
     <row r="7">
@@ -42044,19 +42044,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>541.3878150559777</v>
+        <v>741.9733911499821</v>
       </c>
       <c r="AB7" t="n">
-        <v>740.7506929043174</v>
+        <v>1015.200727327205</v>
       </c>
       <c r="AC7" t="n">
-        <v>670.0544864236556</v>
+        <v>918.3113947542658</v>
       </c>
       <c r="AD7" t="n">
-        <v>541387.8150559778</v>
+        <v>741973.3911499821</v>
       </c>
       <c r="AE7" t="n">
-        <v>740750.6929043174</v>
+        <v>1015200.727327205</v>
       </c>
       <c r="AF7" t="n">
         <v>4.821536717144552e-06</v>
@@ -42065,7 +42065,7 @@
         <v>40</v>
       </c>
       <c r="AH7" t="n">
-        <v>670054.4864236556</v>
+        <v>918311.3947542659</v>
       </c>
     </row>
     <row r="8">
@@ -42150,28 +42150,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>537.4634222032086</v>
+        <v>738.048998297213</v>
       </c>
       <c r="AB8" t="n">
-        <v>735.3811654711651</v>
+        <v>1009.831199894053</v>
       </c>
       <c r="AC8" t="n">
-        <v>665.1974191525444</v>
+        <v>913.4543274831547</v>
       </c>
       <c r="AD8" t="n">
-        <v>537463.4222032086</v>
+        <v>738048.998297213</v>
       </c>
       <c r="AE8" t="n">
-        <v>735381.1654711651</v>
+        <v>1009831.199894053</v>
       </c>
       <c r="AF8" t="n">
         <v>4.847383702909931e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>40</v>
+        <v>39.79166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>665197.4191525443</v>
+        <v>913454.3274831546</v>
       </c>
     </row>
     <row r="9">
@@ -42256,28 +42256,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>534.0905186345826</v>
+        <v>725.1894776170265</v>
       </c>
       <c r="AB9" t="n">
-        <v>730.7662100065676</v>
+        <v>992.2362363774088</v>
       </c>
       <c r="AC9" t="n">
-        <v>661.0229085603573</v>
+        <v>897.5386025898526</v>
       </c>
       <c r="AD9" t="n">
-        <v>534090.5186345826</v>
+        <v>725189.4776170264</v>
       </c>
       <c r="AE9" t="n">
-        <v>730766.2100065675</v>
+        <v>992236.2363774087</v>
       </c>
       <c r="AF9" t="n">
         <v>4.873600989330974e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>40</v>
+        <v>39.58333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>661022.9085603573</v>
+        <v>897538.6025898526</v>
       </c>
     </row>
     <row r="10">
@@ -42362,28 +42362,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>534.5091754664171</v>
+        <v>725.6081344488609</v>
       </c>
       <c r="AB10" t="n">
-        <v>731.3390347537194</v>
+        <v>992.8090611245606</v>
       </c>
       <c r="AC10" t="n">
-        <v>661.5410637176054</v>
+        <v>898.0567577471006</v>
       </c>
       <c r="AD10" t="n">
-        <v>534509.1754664171</v>
+        <v>725608.1344488609</v>
       </c>
       <c r="AE10" t="n">
-        <v>731339.0347537193</v>
+        <v>992809.0611245605</v>
       </c>
       <c r="AF10" t="n">
         <v>4.873156628544176e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>40</v>
+        <v>39.58333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>661541.0637176054</v>
+        <v>898056.7577471007</v>
       </c>
     </row>
   </sheetData>
